--- a/data/source/a-level/alevel_2020_en.xlsx
+++ b/data/source/a-level/alevel_2020_en.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jointcouncilqualifications.sharepoint.com/sites/JCQData/Shared Documents/Operations/Results/Summer Exam Series/2020/Website Files/A Level and AS Results Summer 2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Results day\microsite\data\source\a-level\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_8C166B30DD4CCB24AF7A462AA1EF309C8FBE922C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CAF696ED-53D8-4C82-B11B-75531919280D}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19545" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="England All Ages cum %" sheetId="1" r:id="rId1"/>
@@ -18,22 +17,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'England All Ages cum %'!$1:$11</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="69">
   <si>
     <t>JOINT COUNCIL FOR QUALIFICATIONS</t>
   </si>
@@ -230,32 +219,29 @@
     <t>(-)</t>
   </si>
   <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4) - Very low entry figures (-) not published, but are counted in 'All Subjects'  </t>
+  </si>
+  <si>
     <t>Communication Studies (4)</t>
   </si>
   <si>
-    <t xml:space="preserve"> - </t>
-  </si>
-  <si>
     <t>Welsh Second Language (4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4) - Very low entry figures (-) not published, but are counted in 'All Subjects'  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="###0"/>
     <numFmt numFmtId="165" formatCode="##0.0"/>
     <numFmt numFmtId="166" formatCode="\(###0\)"/>
     <numFmt numFmtId="167" formatCode="\(##0.0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -267,23 +253,23 @@
       <b/>
       <sz val="16"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="9"/>
@@ -403,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -457,10 +443,11 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -784,17 +771,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D299" sqref="D299"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -802,83 +789,84 @@
     <col min="5" max="11" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-    </row>
-    <row r="3" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="22" t="s">
+    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-    </row>
-    <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="22" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-    </row>
-    <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="22" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-    </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="24" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-    </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -891,17 +879,17 @@
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
@@ -932,7 +920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -943,31 +931,31 @@
         <v>9831</v>
       </c>
       <c r="D12" s="13">
-        <v>3.0621970820199103</v>
+        <v>3.0600334297213259</v>
       </c>
       <c r="E12" s="11">
-        <v>10.049842335469434</v>
+        <v>13.559149628725461</v>
       </c>
       <c r="F12" s="11">
-        <v>24.788932967144746</v>
+        <v>32.834909978638997</v>
       </c>
       <c r="G12" s="11">
-        <v>55.070694741125017</v>
+        <v>64.998474214220323</v>
       </c>
       <c r="H12" s="11">
-        <v>80.480113925338216</v>
+        <v>88.851591903163467</v>
       </c>
       <c r="I12" s="11">
-        <v>93.551012104567192</v>
+        <v>97.670633709693817</v>
       </c>
       <c r="J12" s="11">
-        <v>98.840402807445841</v>
+        <v>99.84742142203234</v>
       </c>
       <c r="K12" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="15">
@@ -998,7 +986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -1006,34 +994,34 @@
         <v>22</v>
       </c>
       <c r="C14" s="9">
-        <v>29085</v>
+        <v>29086</v>
       </c>
       <c r="D14" s="13">
-        <v>7.3185829351329721</v>
+        <v>7.3156499474327568</v>
       </c>
       <c r="E14" s="11">
-        <v>14.020973010142685</v>
+        <v>18.768479680946161</v>
       </c>
       <c r="F14" s="11">
-        <v>33.32989513494929</v>
+        <v>44.186206422333768</v>
       </c>
       <c r="G14" s="11">
-        <v>65.982465188241363</v>
+        <v>76.572921680533597</v>
       </c>
       <c r="H14" s="11">
-        <v>88.399518652226234</v>
+        <v>94.739737330674558</v>
       </c>
       <c r="I14" s="11">
-        <v>96.730273336771532</v>
+        <v>98.944509385958881</v>
       </c>
       <c r="J14" s="11">
-        <v>99.370809695719444</v>
+        <v>99.889981434367044</v>
       </c>
       <c r="K14" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="15">
@@ -1064,7 +1052,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
@@ -1072,34 +1060,34 @@
         <v>23</v>
       </c>
       <c r="C16" s="9">
-        <v>38916</v>
+        <v>38917</v>
       </c>
       <c r="D16" s="13">
-        <v>5.4166080920639645</v>
+        <v>5.4137331903285357</v>
       </c>
       <c r="E16" s="11">
-        <v>13.017781889197245</v>
+        <v>17.45252717321479</v>
       </c>
       <c r="F16" s="11">
-        <v>31.172268475691233</v>
+        <v>41.318703908317701</v>
       </c>
       <c r="G16" s="11">
-        <v>63.225922499743035</v>
+        <v>73.649047973893161</v>
       </c>
       <c r="H16" s="11">
-        <v>86.398910473841099</v>
+        <v>93.252306190096874</v>
       </c>
       <c r="I16" s="11">
-        <v>95.927125089937306</v>
+        <v>98.62270986972274</v>
       </c>
       <c r="J16" s="11">
-        <v>99.236817761332091</v>
+        <v>99.879230156486884</v>
       </c>
       <c r="K16" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="15">
@@ -1130,7 +1118,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="15"/>
@@ -1143,7 +1131,7 @@
       <c r="J18" s="16"/>
       <c r="K18" s="17"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
@@ -1151,34 +1139,34 @@
         <v>20</v>
       </c>
       <c r="C19" s="9">
-        <v>21406</v>
+        <v>21433</v>
       </c>
       <c r="D19" s="13">
-        <v>6.6676218836047392</v>
+        <v>6.6713148712457704</v>
       </c>
       <c r="E19" s="11">
-        <v>7.212930953938149</v>
+        <v>12.471422572668315</v>
       </c>
       <c r="F19" s="11">
-        <v>23.708306082406803</v>
+        <v>34.815471469229692</v>
       </c>
       <c r="G19" s="11">
-        <v>44.277305428384565</v>
+        <v>58.979144310175904</v>
       </c>
       <c r="H19" s="11">
-        <v>66.84107259646828</v>
+        <v>81.635795268977745</v>
       </c>
       <c r="I19" s="11">
-        <v>86.200130804447355</v>
+        <v>94.578453786217523</v>
       </c>
       <c r="J19" s="11">
-        <v>96.594412781463149</v>
+        <v>99.55209256753605</v>
       </c>
       <c r="K19" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="15">
@@ -1209,7 +1197,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -1217,34 +1205,34 @@
         <v>22</v>
       </c>
       <c r="C21" s="9">
-        <v>38067</v>
+        <v>38094</v>
       </c>
       <c r="D21" s="13">
-        <v>9.5787002438269511</v>
+        <v>9.5813232860311981</v>
       </c>
       <c r="E21" s="11">
-        <v>7.3107941261460061</v>
+        <v>13.301307292487005</v>
       </c>
       <c r="F21" s="11">
-        <v>25.260724512044554</v>
+        <v>37.872105843439911</v>
       </c>
       <c r="G21" s="11">
-        <v>46.830588173483598</v>
+        <v>63.125426576363729</v>
       </c>
       <c r="H21" s="11">
-        <v>70.210418472692879</v>
+        <v>84.764004830156978</v>
       </c>
       <c r="I21" s="11">
-        <v>88.189245278062373</v>
+        <v>95.786738068987248</v>
       </c>
       <c r="J21" s="11">
-        <v>97.244332361362865</v>
+        <v>99.729616212526906</v>
       </c>
       <c r="K21" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="15">
@@ -1275,7 +1263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
@@ -1283,34 +1271,34 @@
         <v>23</v>
       </c>
       <c r="C23" s="9">
-        <v>59473</v>
+        <v>59527</v>
       </c>
       <c r="D23" s="13">
-        <v>8.2778788431318784</v>
+        <v>8.2807846344961522</v>
       </c>
       <c r="E23" s="11">
-        <v>7.2755704269164152</v>
+        <v>13.002503065835672</v>
       </c>
       <c r="F23" s="11">
-        <v>24.70196559783431</v>
+        <v>36.771549044971188</v>
       </c>
       <c r="G23" s="11">
-        <v>45.911590133337818</v>
+        <v>61.632536496043812</v>
       </c>
       <c r="H23" s="11">
-        <v>68.997696433675785</v>
+        <v>83.637677020511703</v>
       </c>
       <c r="I23" s="11">
-        <v>87.473307215038758</v>
+        <v>95.351689149461592</v>
       </c>
       <c r="J23" s="11">
-        <v>97.010408084340796</v>
+        <v>99.665697918591562</v>
       </c>
       <c r="K23" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="15">
@@ -1341,7 +1329,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="15"/>
@@ -1354,7 +1342,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="17"/>
     </row>
-    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
@@ -1362,34 +1350,34 @@
         <v>20</v>
       </c>
       <c r="C26" s="9">
-        <v>19604</v>
+        <v>19609</v>
       </c>
       <c r="D26" s="13">
-        <v>6.1063281045588766</v>
+        <v>6.1035698833694916</v>
       </c>
       <c r="E26" s="11">
-        <v>2.8208528871658847</v>
+        <v>5.5790708348207456</v>
       </c>
       <c r="F26" s="11">
-        <v>13.573760457049582</v>
+        <v>23.009842419297261</v>
       </c>
       <c r="G26" s="11">
-        <v>42.455621301775146</v>
+        <v>54.68917333877301</v>
       </c>
       <c r="H26" s="11">
-        <v>74.347072026117118</v>
+        <v>84.762099036156869</v>
       </c>
       <c r="I26" s="11">
-        <v>92.328096306876148</v>
+        <v>96.761691060227449</v>
       </c>
       <c r="J26" s="11">
-        <v>98.413589063456442</v>
+        <v>99.704217451170379</v>
       </c>
       <c r="K26" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="15">
@@ -1420,7 +1408,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>21</v>
       </c>
@@ -1428,34 +1416,34 @@
         <v>22</v>
       </c>
       <c r="C28" s="9">
-        <v>13190</v>
+        <v>13191</v>
       </c>
       <c r="D28" s="13">
-        <v>3.3189654087812928</v>
+        <v>3.31777275859814</v>
       </c>
       <c r="E28" s="11">
-        <v>4.1774071266110688</v>
+        <v>8.066105678113864</v>
       </c>
       <c r="F28" s="11">
-        <v>17.596664139499619</v>
+        <v>28.102494124782044</v>
       </c>
       <c r="G28" s="11">
-        <v>48.127369219105383</v>
+        <v>60.025775149723295</v>
       </c>
       <c r="H28" s="11">
-        <v>77.020470053070511</v>
+        <v>87.05177772723826</v>
       </c>
       <c r="I28" s="11">
-        <v>93.093252463987881</v>
+        <v>97.104086119323782</v>
       </c>
       <c r="J28" s="11">
-        <v>98.658074298711142</v>
+        <v>99.780153134713061</v>
       </c>
       <c r="K28" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="15">
@@ -1486,7 +1474,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>21</v>
       </c>
@@ -1494,34 +1482,34 @@
         <v>23</v>
       </c>
       <c r="C30" s="9">
-        <v>32794</v>
+        <v>32800</v>
       </c>
       <c r="D30" s="13">
-        <v>4.5645042083242284</v>
+        <v>4.5627989989664153</v>
       </c>
       <c r="E30" s="11">
-        <v>3.3664694761236813</v>
+        <v>6.5792682926829276</v>
       </c>
       <c r="F30" s="11">
-        <v>15.19180337866683</v>
+        <v>25.05792682926829</v>
       </c>
       <c r="G30" s="11">
-        <v>44.736842105263158</v>
+        <v>56.835365853658537</v>
       </c>
       <c r="H30" s="11">
-        <v>75.422333353662253</v>
+        <v>85.682926829268297</v>
       </c>
       <c r="I30" s="11">
-        <v>92.635848020979452</v>
+        <v>96.899390243902445</v>
       </c>
       <c r="J30" s="11">
-        <v>98.51192291272794</v>
+        <v>99.734756097560975</v>
       </c>
       <c r="K30" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="15">
@@ -1552,7 +1540,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="15"/>
@@ -1565,7 +1553,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="17"/>
     </row>
-    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>26</v>
       </c>
@@ -1573,34 +1561,34 @@
         <v>20</v>
       </c>
       <c r="C33" s="9">
-        <v>23730</v>
+        <v>23767</v>
       </c>
       <c r="D33" s="13">
-        <v>7.3915101979790929</v>
+        <v>7.3978043458637721</v>
       </c>
       <c r="E33" s="11">
-        <v>9.637589549093974</v>
+        <v>15.879160180081625</v>
       </c>
       <c r="F33" s="11">
-        <v>32.144964180362415</v>
+        <v>42.718895948163421</v>
       </c>
       <c r="G33" s="11">
-        <v>54.399494310998733</v>
+        <v>66.327260487230191</v>
       </c>
       <c r="H33" s="11">
-        <v>74.180362410450911</v>
+        <v>85.092775697395552</v>
       </c>
       <c r="I33" s="11">
-        <v>88.731563421828909</v>
+        <v>95.28758362435309</v>
       </c>
       <c r="J33" s="11">
-        <v>96.902654867256629</v>
+        <v>99.545588420919756</v>
       </c>
       <c r="K33" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="15">
@@ -1631,7 +1619,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>21</v>
       </c>
@@ -1639,34 +1627,34 @@
         <v>22</v>
       </c>
       <c r="C35" s="9">
-        <v>28120</v>
+        <v>28156</v>
       </c>
       <c r="D35" s="13">
-        <v>7.0757624939294885</v>
+        <v>7.0817382905836723</v>
       </c>
       <c r="E35" s="11">
-        <v>7.0519203413940259</v>
+        <v>12.938627645972439</v>
       </c>
       <c r="F35" s="11">
-        <v>28.901137980085352</v>
+        <v>41.273618411706209</v>
       </c>
       <c r="G35" s="11">
-        <v>53.392603129445234</v>
+        <v>67.079840886489563</v>
       </c>
       <c r="H35" s="11">
-        <v>75.010668563300143</v>
+        <v>86.780792726239525</v>
       </c>
       <c r="I35" s="11">
-        <v>89.950213371266003</v>
+        <v>96.277880380735908</v>
       </c>
       <c r="J35" s="11">
-        <v>97.386201991465143</v>
+        <v>99.705213808779661</v>
       </c>
       <c r="K35" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="15">
@@ -1697,7 +1685,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>21</v>
       </c>
@@ -1705,34 +1693,34 @@
         <v>23</v>
       </c>
       <c r="C37" s="9">
-        <v>51850</v>
+        <v>51923</v>
       </c>
       <c r="D37" s="13">
-        <v>7.2168550101119484</v>
+        <v>7.2229942811991812</v>
       </c>
       <c r="E37" s="11">
-        <v>8.235294117647058</v>
+        <v>14.284613754983342</v>
       </c>
       <c r="F37" s="11">
-        <v>30.385728061716488</v>
+        <v>41.935173237293682</v>
       </c>
       <c r="G37" s="11">
-        <v>53.853423336547735</v>
+        <v>66.735358126456475</v>
       </c>
       <c r="H37" s="11">
-        <v>74.630665380906464</v>
+        <v>86.00812741944803</v>
       </c>
       <c r="I37" s="11">
-        <v>89.392478302796533</v>
+        <v>95.82458640679468</v>
       </c>
       <c r="J37" s="11">
-        <v>97.164898746383798</v>
+        <v>99.632147603181636</v>
       </c>
       <c r="K37" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="15">
@@ -1763,7 +1751,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="15"/>
@@ -1776,7 +1764,7 @@
       <c r="J39" s="16"/>
       <c r="K39" s="17"/>
     </row>
-    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>27</v>
       </c>
@@ -1787,31 +1775,31 @@
         <v>1779</v>
       </c>
       <c r="D40" s="13">
-        <v>0.55412965201031628</v>
+        <v>0.55373812139906808</v>
       </c>
       <c r="E40" s="11">
-        <v>16.582349634626194</v>
+        <v>20.741989881956155</v>
       </c>
       <c r="F40" s="11">
-        <v>40.697020798201237</v>
+        <v>47.89207419898819</v>
       </c>
       <c r="G40" s="11">
-        <v>67.959527824620565</v>
+        <v>75.042158516020237</v>
       </c>
       <c r="H40" s="11">
-        <v>88.589094997189434</v>
+        <v>92.804946599213039</v>
       </c>
       <c r="I40" s="11">
-        <v>97.301854974704895</v>
+        <v>98.426082068577855</v>
       </c>
       <c r="J40" s="11">
-        <v>99.550309162450816</v>
+        <v>100</v>
       </c>
       <c r="K40" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="15">
@@ -1842,7 +1830,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>21</v>
       </c>
@@ -1853,31 +1841,31 @@
         <v>2820</v>
       </c>
       <c r="D42" s="13">
-        <v>0.70958926859463578</v>
+        <v>0.7092805078649651</v>
       </c>
       <c r="E42" s="11">
-        <v>17.340425531914892</v>
+        <v>22.198581560283685</v>
       </c>
       <c r="F42" s="11">
-        <v>47.4822695035461</v>
+        <v>56.312056737588655</v>
       </c>
       <c r="G42" s="11">
-        <v>75.957446808510639</v>
+        <v>82.37588652482269</v>
       </c>
       <c r="H42" s="11">
-        <v>92.340425531914889</v>
+        <v>95.39007092198581</v>
       </c>
       <c r="I42" s="11">
-        <v>97.801418439716315</v>
+        <v>99.078014184397162</v>
       </c>
       <c r="J42" s="11">
-        <v>99.468085106382972</v>
+        <v>99.929078014184398</v>
       </c>
       <c r="K42" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="15">
@@ -1908,7 +1896,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>21</v>
       </c>
@@ -1919,31 +1907,31 @@
         <v>4599</v>
       </c>
       <c r="D44" s="13">
-        <v>0.64012181661532974</v>
+        <v>0.63976562793434577</v>
       </c>
       <c r="E44" s="11">
-        <v>17.047184170471841</v>
+        <v>21.635138073494236</v>
       </c>
       <c r="F44" s="11">
-        <v>44.857577734290061</v>
+        <v>53.055011959121543</v>
       </c>
       <c r="G44" s="11">
-        <v>72.86366601435094</v>
+        <v>79.539030223961731</v>
       </c>
       <c r="H44" s="11">
-        <v>90.889323766036085</v>
+        <v>94.390084801043699</v>
       </c>
       <c r="I44" s="11">
-        <v>97.608175690367474</v>
+        <v>98.825831702544036</v>
       </c>
       <c r="J44" s="11">
-        <v>99.4998912807132</v>
+        <v>99.956512285279402</v>
       </c>
       <c r="K44" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="15">
@@ -1974,7 +1962,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="15"/>
@@ -1987,9 +1975,9 @@
       <c r="J46" s="16"/>
       <c r="K46" s="17"/>
     </row>
-    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>20</v>
@@ -2022,10 +2010,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="20" t="s">
         <v>64</v>
       </c>
       <c r="D48" s="17">
@@ -2053,7 +2041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>21</v>
       </c>
@@ -2088,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="15">
@@ -2119,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>21</v>
       </c>
@@ -2154,10 +2142,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="20" t="s">
         <v>64</v>
       </c>
       <c r="D52" s="17">
@@ -2185,7 +2173,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="15"/>
@@ -2198,7 +2186,7 @@
       <c r="J53" s="16"/>
       <c r="K53" s="17"/>
     </row>
-    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>28</v>
       </c>
@@ -2206,34 +2194,34 @@
         <v>20</v>
       </c>
       <c r="C54" s="9">
-        <v>9919</v>
+        <v>9920</v>
       </c>
       <c r="D54" s="13">
-        <v>3.0896076550254796</v>
+        <v>3.0877358989762538</v>
       </c>
       <c r="E54" s="11">
-        <v>7.4906744631515272</v>
+        <v>12.822580645161292</v>
       </c>
       <c r="F54" s="11">
-        <v>25.647746748664179</v>
+        <v>34.747983870967744</v>
       </c>
       <c r="G54" s="11">
-        <v>48.190341768323421</v>
+        <v>60.201612903225808</v>
       </c>
       <c r="H54" s="11">
-        <v>71.519306381691706</v>
+        <v>83.51814516129032</v>
       </c>
       <c r="I54" s="11">
-        <v>88.718620828712574</v>
+        <v>95.70564516129032</v>
       </c>
       <c r="J54" s="11">
-        <v>97.08639983869341</v>
+        <v>99.596774193548384</v>
       </c>
       <c r="K54" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="15">
@@ -2264,7 +2252,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>21</v>
       </c>
@@ -2275,31 +2263,31 @@
         <v>1688</v>
       </c>
       <c r="D56" s="13">
-        <v>0.42474705155593806</v>
+        <v>0.42456223307661739</v>
       </c>
       <c r="E56" s="11">
-        <v>11.315165876777252</v>
+        <v>18.127962085308059</v>
       </c>
       <c r="F56" s="11">
-        <v>34.300947867298575</v>
+        <v>44.609004739336491</v>
       </c>
       <c r="G56" s="11">
-        <v>57.81990521327014</v>
+        <v>68.838862559241704</v>
       </c>
       <c r="H56" s="11">
-        <v>77.784360189573462</v>
+        <v>87.973933649289108</v>
       </c>
       <c r="I56" s="11">
-        <v>91.646919431279613</v>
+        <v>96.860189573459721</v>
       </c>
       <c r="J56" s="11">
-        <v>98.104265402843609</v>
+        <v>99.822274881516591</v>
       </c>
       <c r="K56" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="15">
@@ -2330,7 +2318,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>21</v>
       </c>
@@ -2338,34 +2326,34 @@
         <v>23</v>
       </c>
       <c r="C58" s="9">
-        <v>11607</v>
+        <v>11608</v>
       </c>
       <c r="D58" s="13">
-        <v>1.6155455371720226</v>
+        <v>1.6147856945122603</v>
       </c>
       <c r="E58" s="11">
-        <v>8.046868269147927</v>
+        <v>13.594073053066849</v>
       </c>
       <c r="F58" s="11">
-        <v>26.906177306797623</v>
+        <v>36.181943487250173</v>
       </c>
       <c r="G58" s="11">
-        <v>49.590764194020849</v>
+        <v>61.457615437629222</v>
       </c>
       <c r="H58" s="11">
-        <v>72.430429912983541</v>
+        <v>84.166092350103369</v>
       </c>
       <c r="I58" s="11">
-        <v>89.144481778237278</v>
+        <v>95.873535492763608</v>
       </c>
       <c r="J58" s="11">
-        <v>97.234427500646163</v>
+        <v>99.629565816678152</v>
       </c>
       <c r="K58" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="15">
@@ -2396,7 +2384,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -2409,7 +2397,7 @@
       <c r="J60" s="18"/>
       <c r="K60" s="18"/>
     </row>
-    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>29</v>
       </c>
@@ -2444,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="15">
@@ -2475,7 +2463,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>21</v>
       </c>
@@ -2510,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="15">
@@ -2541,7 +2529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>21</v>
       </c>
@@ -2576,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="15">
@@ -2607,7 +2595,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="15"/>
@@ -2620,7 +2608,7 @@
       <c r="J67" s="16"/>
       <c r="K67" s="17"/>
     </row>
-    <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>30</v>
       </c>
@@ -2631,31 +2619,31 @@
         <v>6175</v>
       </c>
       <c r="D68" s="13">
-        <v>1.9234123671521659</v>
+        <v>1.9220533443728192</v>
       </c>
       <c r="E68" s="11">
-        <v>7.2064777327935214</v>
+        <v>9.3279352226720658</v>
       </c>
       <c r="F68" s="11">
-        <v>23.206477732793523</v>
+        <v>28.923076923076923</v>
       </c>
       <c r="G68" s="11">
-        <v>49.40890688259109</v>
+        <v>57.133603238866392</v>
       </c>
       <c r="H68" s="11">
-        <v>77.392712550607285</v>
+        <v>83.708502024291505</v>
       </c>
       <c r="I68" s="11">
-        <v>92.987854251012152</v>
+        <v>95.805668016194332</v>
       </c>
       <c r="J68" s="11">
-        <v>98.785425101214571</v>
+        <v>99.740890688259114</v>
       </c>
       <c r="K68" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="15">
@@ -2686,7 +2674,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>21</v>
       </c>
@@ -2697,31 +2685,31 @@
         <v>2992</v>
       </c>
       <c r="D70" s="13">
-        <v>0.75286918143090431</v>
+        <v>0.75254158848651609</v>
       </c>
       <c r="E70" s="11">
-        <v>11.397058823529411</v>
+        <v>13.93716577540107</v>
       </c>
       <c r="F70" s="11">
-        <v>33.756684491978611</v>
+        <v>40.106951871657756</v>
       </c>
       <c r="G70" s="11">
-        <v>61.096256684491976</v>
+        <v>68.950534759358277</v>
       </c>
       <c r="H70" s="11">
-        <v>85.862299465240639</v>
+        <v>90.340909090909093</v>
       </c>
       <c r="I70" s="11">
-        <v>95.788770053475929</v>
+        <v>97.693850267379673</v>
       </c>
       <c r="J70" s="11">
-        <v>99.264705882352942</v>
+        <v>99.866310160427801</v>
       </c>
       <c r="K70" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="15">
@@ -2752,7 +2740,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>21</v>
       </c>
@@ -2763,31 +2751,31 @@
         <v>9167</v>
       </c>
       <c r="D72" s="13">
-        <v>1.2759288308138135</v>
+        <v>1.2752188543757659</v>
       </c>
       <c r="E72" s="11">
-        <v>8.5742336642303929</v>
+        <v>10.832333369695647</v>
       </c>
       <c r="F72" s="11">
-        <v>26.649940002181737</v>
+        <v>32.57336096869205</v>
       </c>
       <c r="G72" s="11">
-        <v>53.22351914475837</v>
+        <v>60.99050943602051</v>
       </c>
       <c r="H72" s="11">
-        <v>80.157085196901932</v>
+        <v>85.873240973055516</v>
       </c>
       <c r="I72" s="11">
-        <v>93.902039925820873</v>
+        <v>96.421948292789352</v>
       </c>
       <c r="J72" s="11">
-        <v>98.941856659757832</v>
+        <v>99.781826115413992</v>
       </c>
       <c r="K72" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="15">
@@ -2818,7 +2806,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="15"/>
@@ -2831,7 +2819,7 @@
       <c r="J74" s="16"/>
       <c r="K74" s="17"/>
     </row>
-    <row r="75" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>31</v>
       </c>
@@ -2842,31 +2830,31 @@
         <v>2431</v>
       </c>
       <c r="D75" s="13">
-        <v>0.75721707927885273</v>
+        <v>0.75668205346887829</v>
       </c>
       <c r="E75" s="11">
-        <v>7.0752776635129582</v>
+        <v>10.407239819004525</v>
       </c>
       <c r="F75" s="11">
-        <v>22.665569724393254</v>
+        <v>32.702591526120941</v>
       </c>
       <c r="G75" s="11">
-        <v>53.59934183463595</v>
+        <v>66.844919786096256</v>
       </c>
       <c r="H75" s="11">
-        <v>82.188399835458654</v>
+        <v>91.238173591114773</v>
       </c>
       <c r="I75" s="11">
-        <v>95.639654463183874</v>
+        <v>98.354586589880711</v>
       </c>
       <c r="J75" s="11">
-        <v>99.465240641711233</v>
+        <v>99.917729329494037</v>
       </c>
       <c r="K75" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="15">
@@ -2897,7 +2885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>21</v>
       </c>
@@ -2908,31 +2896,31 @@
         <v>6236</v>
       </c>
       <c r="D77" s="13">
-        <v>1.5691484677149463</v>
+        <v>1.5684656904418164</v>
       </c>
       <c r="E77" s="11">
-        <v>8.8838999358563182</v>
+        <v>13.357921744708145</v>
       </c>
       <c r="F77" s="11">
-        <v>29.971135343168697</v>
+        <v>41.725465041693397</v>
       </c>
       <c r="G77" s="11">
-        <v>63.774855676715845</v>
+        <v>75.865939704939066</v>
       </c>
       <c r="H77" s="11">
-        <v>89.111610006414367</v>
+        <v>95.493906350224506</v>
       </c>
       <c r="I77" s="11">
-        <v>97.754971135343169</v>
+        <v>99.342527261064788</v>
       </c>
       <c r="J77" s="11">
-        <v>99.823604874919823</v>
+        <v>99.951892238614491</v>
       </c>
       <c r="K77" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="15">
@@ -2963,7 +2951,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>21</v>
       </c>
@@ -2974,31 +2962,31 @@
         <v>8667</v>
       </c>
       <c r="D79" s="13">
-        <v>1.2063352434453281</v>
+        <v>1.2056639915866438</v>
       </c>
       <c r="E79" s="11">
-        <v>8.3766008999653856</v>
+        <v>12.530287296642436</v>
       </c>
       <c r="F79" s="11">
-        <v>27.922002999884622</v>
+        <v>39.194646359755389</v>
       </c>
       <c r="G79" s="11">
-        <v>60.920733817930085</v>
+        <v>73.335640936887046</v>
       </c>
       <c r="H79" s="11">
-        <v>87.169724241375334</v>
+        <v>94.300219222337603</v>
       </c>
       <c r="I79" s="11">
-        <v>97.161647628937359</v>
+        <v>99.065420560747668</v>
       </c>
       <c r="J79" s="11">
-        <v>99.723087573554864</v>
+        <v>99.942309911157267</v>
       </c>
       <c r="K79" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="15">
@@ -3029,7 +3017,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="15"/>
@@ -3042,7 +3030,7 @@
       <c r="J81" s="16"/>
       <c r="K81" s="17"/>
     </row>
-    <row r="82" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>32</v>
       </c>
@@ -3050,34 +3038,34 @@
         <v>20</v>
       </c>
       <c r="C82" s="9">
-        <v>20957</v>
+        <v>21010</v>
       </c>
       <c r="D82" s="13">
-        <v>6.5277656645195057</v>
+        <v>6.5396503263599888</v>
       </c>
       <c r="E82" s="11">
-        <v>6.5037934818914929</v>
+        <v>12.189433603046169</v>
       </c>
       <c r="F82" s="11">
-        <v>28.090852698382403</v>
+        <v>38.462636839600187</v>
       </c>
       <c r="G82" s="11">
-        <v>57.408025957913821</v>
+        <v>67.629700142789147</v>
       </c>
       <c r="H82" s="11">
-        <v>81.543159803406979</v>
+        <v>89.619228938600671</v>
       </c>
       <c r="I82" s="11">
-        <v>94.235816195066093</v>
+        <v>97.615421227986673</v>
       </c>
       <c r="J82" s="11">
-        <v>98.601899126783408</v>
+        <v>99.790575916230367</v>
       </c>
       <c r="K82" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="15">
@@ -3108,7 +3096,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>21</v>
       </c>
@@ -3116,34 +3104,34 @@
         <v>22</v>
       </c>
       <c r="C84" s="9">
-        <v>9410</v>
+        <v>9429</v>
       </c>
       <c r="D84" s="13">
-        <v>2.367813835984228</v>
+        <v>2.3715623789570057</v>
       </c>
       <c r="E84" s="11">
-        <v>8.9373007438894785</v>
+        <v>16.22653515749284</v>
       </c>
       <c r="F84" s="11">
-        <v>35.069075451647187</v>
+        <v>46.84484038604306</v>
       </c>
       <c r="G84" s="11">
-        <v>64.877789585547291</v>
+        <v>75.299607593594232</v>
       </c>
       <c r="H84" s="11">
-        <v>86.365568544102018</v>
+        <v>92.989712588821718</v>
       </c>
       <c r="I84" s="11">
-        <v>96.089266737513285</v>
+        <v>98.621274790539829</v>
       </c>
       <c r="J84" s="11">
-        <v>99.266737513283744</v>
+        <v>99.872733057588292</v>
       </c>
       <c r="K84" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="15">
@@ -3174,7 +3162,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>21</v>
       </c>
@@ -3182,34 +3170,34 @@
         <v>23</v>
       </c>
       <c r="C86" s="9">
-        <v>30367</v>
+        <v>30439</v>
       </c>
       <c r="D86" s="13">
-        <v>4.2266969352375998</v>
+        <v>4.2343609368761799</v>
       </c>
       <c r="E86" s="11">
-        <v>7.2578786182369015</v>
+        <v>13.439994743585531</v>
       </c>
       <c r="F86" s="11">
-        <v>30.253235420028318</v>
+        <v>41.059167515358588</v>
       </c>
       <c r="G86" s="11">
-        <v>59.722725326835047</v>
+        <v>70.005584940372543</v>
       </c>
       <c r="H86" s="11">
-        <v>83.037507820989887</v>
+        <v>90.66329380071619</v>
       </c>
       <c r="I86" s="11">
-        <v>94.810155761188128</v>
+        <v>97.927001544071743</v>
       </c>
       <c r="J86" s="11">
-        <v>98.807916488293216</v>
+        <v>99.816025493610169</v>
       </c>
       <c r="K86" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="15">
@@ -3240,7 +3228,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="15"/>
@@ -3253,7 +3241,7 @@
       <c r="J88" s="16"/>
       <c r="K88" s="17"/>
     </row>
-    <row r="89" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>33</v>
       </c>
@@ -3261,34 +3249,34 @@
         <v>20</v>
       </c>
       <c r="C89" s="9">
-        <v>4108</v>
+        <v>4109</v>
       </c>
       <c r="D89" s="13">
-        <v>1.279575385305441</v>
+        <v>1.2789825412190954</v>
       </c>
       <c r="E89" s="11">
-        <v>1.679649464459591</v>
+        <v>4.0399123874422003</v>
       </c>
       <c r="F89" s="11">
-        <v>8.8364167478091531</v>
+        <v>16.719396446824046</v>
       </c>
       <c r="G89" s="11">
-        <v>33.373904576436217</v>
+        <v>47.432465320029202</v>
       </c>
       <c r="H89" s="11">
-        <v>71.056475170399224</v>
+        <v>82.939888050620596</v>
       </c>
       <c r="I89" s="11">
-        <v>93.816942551119766</v>
+        <v>97.249939157945974</v>
       </c>
       <c r="J89" s="11">
-        <v>99.318403115871462</v>
+        <v>99.87831589194451</v>
       </c>
       <c r="K89" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="15">
@@ -3319,7 +3307,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>21</v>
       </c>
@@ -3330,31 +3318,31 @@
         <v>10558</v>
       </c>
       <c r="D91" s="13">
-        <v>2.6566820914262999</v>
+        <v>2.6555261000135819</v>
       </c>
       <c r="E91" s="11">
-        <v>1.9795415798446676</v>
+        <v>5.5124076529645762</v>
       </c>
       <c r="F91" s="11">
-        <v>12.369767001326009</v>
+        <v>23.801856412199278</v>
       </c>
       <c r="G91" s="11">
-        <v>42.328092441750329</v>
+        <v>57.416177306308015</v>
       </c>
       <c r="H91" s="11">
-        <v>79.153248721348746</v>
+        <v>88.785754877817766</v>
       </c>
       <c r="I91" s="11">
-        <v>96.126160257624548</v>
+        <v>98.569804887289251</v>
       </c>
       <c r="J91" s="11">
-        <v>99.573782913430577</v>
+        <v>99.952642545936726</v>
       </c>
       <c r="K91" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="15">
@@ -3385,7 +3373,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>21</v>
       </c>
@@ -3393,34 +3381,34 @@
         <v>23</v>
       </c>
       <c r="C93" s="9">
-        <v>14666</v>
+        <v>14667</v>
       </c>
       <c r="D93" s="13">
-        <v>2.0413191046924175</v>
+        <v>2.0403223450561101</v>
       </c>
       <c r="E93" s="11">
-        <v>1.895540706395745</v>
+        <v>5.0998840935433281</v>
       </c>
       <c r="F93" s="11">
-        <v>11.380062730124097</v>
+        <v>21.817685961682688</v>
       </c>
       <c r="G93" s="11">
-        <v>39.8199918178099</v>
+        <v>54.619213199700013</v>
       </c>
       <c r="H93" s="11">
-        <v>76.885312968771316</v>
+        <v>87.148019363196298</v>
       </c>
       <c r="I93" s="11">
-        <v>95.479339969998634</v>
+        <v>98.200040908161185</v>
       </c>
       <c r="J93" s="11">
-        <v>99.502250102277372</v>
+        <v>99.931819731369742</v>
       </c>
       <c r="K93" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="15">
@@ -3451,7 +3439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="15"/>
@@ -3464,7 +3452,7 @@
       <c r="J95" s="16"/>
       <c r="K95" s="17"/>
     </row>
-    <row r="96" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>34</v>
       </c>
@@ -3472,34 +3460,34 @@
         <v>20</v>
       </c>
       <c r="C96" s="9">
-        <v>8607</v>
+        <v>8612</v>
       </c>
       <c r="D96" s="13">
-        <v>2.680940930215173</v>
+        <v>2.680602980038659</v>
       </c>
       <c r="E96" s="11">
-        <v>9.5271290809805969</v>
+        <v>14.619136089177893</v>
       </c>
       <c r="F96" s="11">
-        <v>23.89915185314279</v>
+        <v>34.997677659080352</v>
       </c>
       <c r="G96" s="11">
-        <v>51.81828744045545</v>
+        <v>64.607524384579648</v>
       </c>
       <c r="H96" s="11">
-        <v>79.923318229348212</v>
+        <v>89.050162563864376</v>
       </c>
       <c r="I96" s="11">
-        <v>95.073777158127101</v>
+        <v>98.223409196470044</v>
       </c>
       <c r="J96" s="11">
-        <v>99.43069594516092</v>
+        <v>99.953553181607063</v>
       </c>
       <c r="K96" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="15">
@@ -3530,7 +3518,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>21</v>
       </c>
@@ -3538,34 +3526,34 @@
         <v>22</v>
       </c>
       <c r="C98" s="9">
-        <v>29357</v>
+        <v>29365</v>
       </c>
       <c r="D98" s="13">
-        <v>7.387025587990327</v>
+        <v>7.3858234444874826</v>
       </c>
       <c r="E98" s="11">
-        <v>9.111966481588718</v>
+        <v>15.218797888642943</v>
       </c>
       <c r="F98" s="11">
-        <v>25.820076983342982</v>
+        <v>38.528860888813213</v>
       </c>
       <c r="G98" s="11">
-        <v>55.928739312600065</v>
+        <v>68.697428911970036</v>
       </c>
       <c r="H98" s="11">
-        <v>82.845658616343627</v>
+        <v>91.51030137919291</v>
       </c>
       <c r="I98" s="11">
-        <v>96.586844704840416</v>
+        <v>98.831942789034571</v>
       </c>
       <c r="J98" s="11">
-        <v>99.621895970296691</v>
+        <v>99.942107951643109</v>
       </c>
       <c r="K98" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="15">
@@ -3596,7 +3584,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>21</v>
       </c>
@@ -3604,34 +3592,34 @@
         <v>23</v>
       </c>
       <c r="C100" s="9">
-        <v>37964</v>
+        <v>37977</v>
       </c>
       <c r="D100" s="13">
-        <v>5.2841019017143687</v>
+        <v>5.2829700482849855</v>
       </c>
       <c r="E100" s="11">
-        <v>9.2060899799810336</v>
+        <v>15.082813281723148</v>
       </c>
       <c r="F100" s="11">
-        <v>25.384574860394061</v>
+        <v>37.728098585986253</v>
       </c>
       <c r="G100" s="11">
-        <v>54.996839110736481</v>
+        <v>67.769966032072048</v>
       </c>
       <c r="H100" s="11">
-        <v>82.183120851332845</v>
+        <v>90.952418569133954</v>
       </c>
       <c r="I100" s="11">
-        <v>96.243809925192295</v>
+        <v>98.693946335940169</v>
       </c>
       <c r="J100" s="11">
-        <v>99.578548098198297</v>
+        <v>99.944703373094242</v>
       </c>
       <c r="K100" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="15">
@@ -3662,7 +3650,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="15"/>
@@ -3675,7 +3663,7 @@
       <c r="J102" s="16"/>
       <c r="K102" s="17"/>
     </row>
-    <row r="103" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>35</v>
       </c>
@@ -3686,31 +3674,31 @@
         <v>1763</v>
       </c>
       <c r="D103" s="13">
-        <v>0.54914591146384917</v>
+        <v>0.54875790220717091</v>
       </c>
       <c r="E103" s="11">
-        <v>2.8360748723766309</v>
+        <v>6.0692002268859895</v>
       </c>
       <c r="F103" s="11">
-        <v>11.854792966534317</v>
+        <v>19.795802609188883</v>
       </c>
       <c r="G103" s="11">
-        <v>37.209302325581397</v>
+        <v>49.914917753828703</v>
       </c>
       <c r="H103" s="11">
-        <v>72.093023255813947</v>
+        <v>82.019285309132158</v>
       </c>
       <c r="I103" s="11">
-        <v>93.76063528077141</v>
+        <v>96.539988655700512</v>
       </c>
       <c r="J103" s="11">
-        <v>98.979013045944413</v>
+        <v>99.602949517867273</v>
       </c>
       <c r="K103" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="15">
@@ -3741,7 +3729,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>21</v>
       </c>
@@ -3749,34 +3737,34 @@
         <v>22</v>
       </c>
       <c r="C105" s="9">
-        <v>5393</v>
+        <v>5394</v>
       </c>
       <c r="D105" s="13">
-        <v>1.3570265693371881</v>
+        <v>1.3566876097246885</v>
       </c>
       <c r="E105" s="11">
-        <v>3.2634897088818837</v>
+        <v>6.8409343715239155</v>
       </c>
       <c r="F105" s="11">
-        <v>14.426107917671056</v>
+        <v>24.601408972932891</v>
       </c>
       <c r="G105" s="11">
-        <v>44.910068607454107</v>
+        <v>58.379681127178351</v>
       </c>
       <c r="H105" s="11">
-        <v>79.065455219729273</v>
+        <v>88.431590656284769</v>
       </c>
       <c r="I105" s="11">
-        <v>95.865010198405344</v>
+        <v>98.257322951427511</v>
       </c>
       <c r="J105" s="11">
-        <v>99.647691451882068</v>
+        <v>99.888765294771957</v>
       </c>
       <c r="K105" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="15">
@@ -3807,7 +3795,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>21</v>
       </c>
@@ -3815,34 +3803,34 @@
         <v>23</v>
       </c>
       <c r="C107" s="9">
-        <v>7156</v>
+        <v>7157</v>
       </c>
       <c r="D107" s="13">
-        <v>0.99602342241776465</v>
+        <v>0.99560830596349492</v>
       </c>
       <c r="E107" s="11">
-        <v>3.1581889323644496</v>
+        <v>6.6508313539192399</v>
       </c>
       <c r="F107" s="11">
-        <v>13.792621576299608</v>
+        <v>23.417633086488753</v>
       </c>
       <c r="G107" s="11">
-        <v>43.012856344326437</v>
+        <v>56.294536817102134</v>
       </c>
       <c r="H107" s="11">
-        <v>77.34768026830632</v>
+        <v>86.85203297471007</v>
       </c>
       <c r="I107" s="11">
-        <v>95.346562325321401</v>
+        <v>97.834288109543095</v>
       </c>
       <c r="J107" s="11">
-        <v>99.482951369480162</v>
+        <v>99.818359647897154</v>
       </c>
       <c r="K107" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="15">
@@ -3873,7 +3861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18"/>
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
@@ -3886,7 +3874,7 @@
       <c r="J109" s="18"/>
       <c r="K109" s="18"/>
     </row>
-    <row r="110" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>36</v>
       </c>
@@ -3897,31 +3885,31 @@
         <v>2151</v>
       </c>
       <c r="D110" s="13">
-        <v>0.67000161971567762</v>
+        <v>0.6695282176106776</v>
       </c>
       <c r="E110" s="11">
-        <v>15.388191538819154</v>
+        <v>21.199442119944212</v>
       </c>
       <c r="F110" s="11">
-        <v>45.792654579265459</v>
+        <v>53.417015341701536</v>
       </c>
       <c r="G110" s="11">
-        <v>70.897257089725713</v>
+        <v>77.870757787075789</v>
       </c>
       <c r="H110" s="11">
-        <v>88.609948860994891</v>
+        <v>93.026499302649938</v>
       </c>
       <c r="I110" s="11">
-        <v>96.931659693165969</v>
+        <v>98.744769874476987</v>
       </c>
       <c r="J110" s="11">
-        <v>99.488609948860997</v>
+        <v>99.907019990701997</v>
       </c>
       <c r="K110" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="15">
@@ -3952,7 +3940,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>21</v>
       </c>
@@ -3963,31 +3951,31 @@
         <v>5406</v>
       </c>
       <c r="D112" s="13">
-        <v>1.3602977255399293</v>
+        <v>1.3597058246517735</v>
       </c>
       <c r="E112" s="11">
-        <v>15.09433962264151</v>
+        <v>19.718830928597857</v>
       </c>
       <c r="F112" s="11">
-        <v>46.022937476877544</v>
+        <v>53.662597114317421</v>
       </c>
       <c r="G112" s="11">
-        <v>72.789493155752865</v>
+        <v>79.152793192748788</v>
       </c>
       <c r="H112" s="11">
-        <v>90.011098779134286</v>
+        <v>94.136145024047352</v>
       </c>
       <c r="I112" s="11">
-        <v>96.910839807621159</v>
+        <v>98.908620051794301</v>
       </c>
       <c r="J112" s="11">
-        <v>99.500554938956725</v>
+        <v>99.90751017388088</v>
       </c>
       <c r="K112" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="15">
@@ -4018,7 +4006,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>21</v>
       </c>
@@ -4029,31 +4017,31 @@
         <v>7557</v>
       </c>
       <c r="D114" s="13">
-        <v>1.05183747948729</v>
+        <v>1.0512521961947927</v>
       </c>
       <c r="E114" s="11">
-        <v>15.177980680164085</v>
+        <v>20.140267301839355</v>
       </c>
       <c r="F114" s="11">
-        <v>45.957390498875213</v>
+        <v>53.592695514092895</v>
       </c>
       <c r="G114" s="11">
-        <v>72.250893211591901</v>
+        <v>78.787878787878782</v>
       </c>
       <c r="H114" s="11">
-        <v>89.612280005293115</v>
+        <v>93.820299060473729</v>
       </c>
       <c r="I114" s="11">
-        <v>96.9167659123991</v>
+        <v>98.861982268095801</v>
       </c>
       <c r="J114" s="11">
-        <v>99.49715495567024</v>
+        <v>99.907370649728733</v>
       </c>
       <c r="K114" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="15">
@@ -4084,7 +4072,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="15"/>
@@ -4097,7 +4085,7 @@
       <c r="J116" s="16"/>
       <c r="K116" s="17"/>
     </row>
-    <row r="117" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>37</v>
       </c>
@@ -4132,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="15">
@@ -4163,7 +4151,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>21</v>
       </c>
@@ -4198,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="15">
@@ -4229,7 +4217,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>21</v>
       </c>
@@ -4264,7 +4252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="15">
@@ -4295,7 +4283,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="15"/>
@@ -4308,7 +4296,7 @@
       <c r="J123" s="16"/>
       <c r="K123" s="17"/>
     </row>
-    <row r="124" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>38</v>
       </c>
@@ -4316,34 +4304,34 @@
         <v>20</v>
       </c>
       <c r="C124" s="9">
-        <v>13563</v>
+        <v>13566</v>
       </c>
       <c r="D124" s="13">
-        <v>4.2246545644833731</v>
+        <v>4.2226033473298248</v>
       </c>
       <c r="E124" s="11">
-        <v>3.7307380373073804</v>
+        <v>7.8652513637033765</v>
       </c>
       <c r="F124" s="11">
-        <v>18.255548182555479</v>
+        <v>27.627893262568186</v>
       </c>
       <c r="G124" s="11">
-        <v>46.752193467521934</v>
+        <v>57.577767949284976</v>
       </c>
       <c r="H124" s="11">
-        <v>76.87827176878271</v>
+        <v>85.338345864661662</v>
       </c>
       <c r="I124" s="11">
-        <v>93.563370935633699</v>
+        <v>96.955624355005156</v>
       </c>
       <c r="J124" s="11">
-        <v>98.776081987760818</v>
+        <v>99.815715759988208</v>
       </c>
       <c r="K124" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="15">
@@ -4374,7 +4362,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>21</v>
       </c>
@@ -4382,34 +4370,34 @@
         <v>22</v>
       </c>
       <c r="C126" s="9">
-        <v>13746</v>
+        <v>13748</v>
       </c>
       <c r="D126" s="13">
-        <v>3.4588702432985334</v>
+        <v>3.457868234797</v>
       </c>
       <c r="E126" s="11">
-        <v>7.8713807653135461</v>
+        <v>15.442246144893804</v>
       </c>
       <c r="F126" s="11">
-        <v>31.747417430525243</v>
+        <v>44.355542624381727</v>
       </c>
       <c r="G126" s="11">
-        <v>63.036519714826134</v>
+        <v>72.686936281640968</v>
       </c>
       <c r="H126" s="11">
-        <v>86.927106067219555</v>
+        <v>92.166133255746288</v>
       </c>
       <c r="I126" s="11">
-        <v>96.719045540520881</v>
+        <v>98.668897294151876</v>
       </c>
       <c r="J126" s="11">
-        <v>99.337989233231482</v>
+        <v>99.927262147221413</v>
       </c>
       <c r="K126" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="15">
@@ -4440,7 +4428,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>21</v>
       </c>
@@ -4448,34 +4436,34 @@
         <v>23</v>
       </c>
       <c r="C128" s="9">
-        <v>27309</v>
+        <v>27314</v>
       </c>
       <c r="D128" s="13">
-        <v>3.8010625548919421</v>
+        <v>3.7996430444441662</v>
       </c>
       <c r="E128" s="11">
-        <v>5.8149328060346406</v>
+        <v>11.678992458080105</v>
       </c>
       <c r="F128" s="11">
-        <v>25.046687905086234</v>
+        <v>36.047448195064803</v>
       </c>
       <c r="G128" s="11">
-        <v>54.948917939140941</v>
+        <v>65.182690195504136</v>
       </c>
       <c r="H128" s="11">
-        <v>81.936357977223622</v>
+        <v>88.774987186058425</v>
       </c>
       <c r="I128" s="11">
-        <v>95.151781463986225</v>
+        <v>97.817968807205091</v>
       </c>
       <c r="J128" s="11">
-        <v>99.058918305320589</v>
+        <v>99.871860584315726</v>
       </c>
       <c r="K128" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="15">
@@ -4506,7 +4494,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="15"/>
@@ -4519,7 +4507,7 @@
       <c r="J130" s="16"/>
       <c r="K130" s="17"/>
     </row>
-    <row r="131" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>39</v>
       </c>
@@ -4527,34 +4515,34 @@
         <v>20</v>
       </c>
       <c r="C131" s="9">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="D131" s="13">
-        <v>0.32020533011051444</v>
+        <v>0.32091287417787479</v>
       </c>
       <c r="E131" s="11">
-        <v>20.428015564202333</v>
+        <v>23.18137730358875</v>
       </c>
       <c r="F131" s="11">
-        <v>54.57198443579766</v>
+        <v>58.29291949563531</v>
       </c>
       <c r="G131" s="11">
-        <v>76.264591439688715</v>
+        <v>79.631425800193995</v>
       </c>
       <c r="H131" s="11">
-        <v>89.39688715953308</v>
+        <v>92.531522793404463</v>
       </c>
       <c r="I131" s="11">
-        <v>97.081712062256813</v>
+        <v>98.351115421920468</v>
       </c>
       <c r="J131" s="11">
-        <v>99.902723735408557</v>
+        <v>100</v>
       </c>
       <c r="K131" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="15">
@@ -4585,7 +4573,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>21</v>
       </c>
@@ -4596,22 +4584,22 @@
         <v>1635</v>
       </c>
       <c r="D133" s="13">
-        <v>0.41141079934476227</v>
+        <v>0.41123178381532549</v>
       </c>
       <c r="E133" s="11">
-        <v>20.36697247706422</v>
+        <v>22.691131498470948</v>
       </c>
       <c r="F133" s="11">
-        <v>53.211009174311933</v>
+        <v>58.348623853211009</v>
       </c>
       <c r="G133" s="11">
-        <v>78.042813455657495</v>
+        <v>83.547400611620787</v>
       </c>
       <c r="H133" s="11">
-        <v>92.415902140672785</v>
+        <v>96.085626911314975</v>
       </c>
       <c r="I133" s="11">
-        <v>98.103975535168203</v>
+        <v>99.266055045871553</v>
       </c>
       <c r="J133" s="11">
         <v>99.938837920489306</v>
@@ -4620,7 +4608,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="15">
@@ -4651,7 +4639,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>21</v>
       </c>
@@ -4659,34 +4647,34 @@
         <v>23</v>
       </c>
       <c r="C135" s="9">
-        <v>2663</v>
+        <v>2666</v>
       </c>
       <c r="D135" s="13">
-        <v>0.37065544632455388</v>
+        <v>0.37086652839159945</v>
       </c>
       <c r="E135" s="11">
-        <v>20.390536988358992</v>
+        <v>22.88072018004501</v>
       </c>
       <c r="F135" s="11">
-        <v>53.736387532857677</v>
+        <v>58.327081770442611</v>
       </c>
       <c r="G135" s="11">
-        <v>77.356365001877577</v>
+        <v>82.033008252063013</v>
       </c>
       <c r="H135" s="11">
-        <v>91.250469395418705</v>
+        <v>94.711177794448602</v>
       </c>
       <c r="I135" s="11">
-        <v>97.709350356740515</v>
+        <v>98.912228057014246</v>
       </c>
       <c r="J135" s="11">
-        <v>99.924896733007884</v>
+        <v>99.962490622655665</v>
       </c>
       <c r="K135" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="15">
@@ -4717,7 +4705,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="15"/>
@@ -4730,7 +4718,7 @@
       <c r="J137" s="16"/>
       <c r="K137" s="17"/>
     </row>
-    <row r="138" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>40</v>
       </c>
@@ -4738,34 +4726,34 @@
         <v>20</v>
       </c>
       <c r="C138" s="9">
-        <v>17685</v>
+        <v>17693</v>
       </c>
       <c r="D138" s="13">
-        <v>5.5085907227669724</v>
+        <v>5.5071886351398041</v>
       </c>
       <c r="E138" s="11">
-        <v>4.7497879558948259</v>
+        <v>9.5178884304527216</v>
       </c>
       <c r="F138" s="11">
-        <v>20.638959570257281</v>
+        <v>31.735714689425198</v>
       </c>
       <c r="G138" s="11">
-        <v>50.302516256714739</v>
+        <v>61.52150568021252</v>
       </c>
       <c r="H138" s="11">
-        <v>79.43454905286967</v>
+        <v>87.237890691233815</v>
       </c>
       <c r="I138" s="11">
-        <v>94.758269720101779</v>
+        <v>97.671395467133891</v>
       </c>
       <c r="J138" s="11">
-        <v>99.163132598247103</v>
+        <v>99.870005086757473</v>
       </c>
       <c r="K138" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="15">
@@ -4796,7 +4784,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>21</v>
       </c>
@@ -4804,34 +4792,34 @@
         <v>22</v>
       </c>
       <c r="C140" s="9">
-        <v>23164</v>
+        <v>23178</v>
       </c>
       <c r="D140" s="13">
-        <v>5.8286970984844482</v>
+        <v>5.8296821316645957</v>
       </c>
       <c r="E140" s="11">
-        <v>6.7993438093593515</v>
+        <v>13.486927258607301</v>
       </c>
       <c r="F140" s="11">
-        <v>26.830426523916422</v>
+        <v>40.551384933989127</v>
       </c>
       <c r="G140" s="11">
-        <v>59.998273182524606</v>
+        <v>71.507463974458545</v>
       </c>
       <c r="H140" s="11">
-        <v>85.542220687273357</v>
+        <v>92.06143757010959</v>
       </c>
       <c r="I140" s="11">
-        <v>96.580901398722148</v>
+        <v>98.571921649840363</v>
       </c>
       <c r="J140" s="11">
-        <v>99.469003626316692</v>
+        <v>99.905082405729573</v>
       </c>
       <c r="K140" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="15">
@@ -4862,7 +4850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>21</v>
       </c>
@@ -4870,34 +4858,34 @@
         <v>23</v>
       </c>
       <c r="C142" s="9">
-        <v>40849</v>
+        <v>40871</v>
       </c>
       <c r="D142" s="13">
-        <v>5.68565690083053</v>
+        <v>5.6855535941084252</v>
       </c>
       <c r="E142" s="11">
-        <v>5.9120174300472472</v>
+        <v>11.768735778424801</v>
       </c>
       <c r="F142" s="11">
-        <v>24.149917990648486</v>
+        <v>36.735093342467763</v>
       </c>
       <c r="G142" s="11">
-        <v>55.800631594408678</v>
+        <v>67.184556286853763</v>
       </c>
       <c r="H142" s="11">
-        <v>82.897990158877818</v>
+        <v>89.973330723495877</v>
       </c>
       <c r="I142" s="11">
-        <v>95.791818649171333</v>
+        <v>98.182085097012546</v>
       </c>
       <c r="J142" s="11">
-        <v>99.336581066855985</v>
+        <v>99.889897482322425</v>
       </c>
       <c r="K142" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="15">
@@ -4928,7 +4916,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="15"/>
@@ -4941,7 +4929,7 @@
       <c r="J144" s="16"/>
       <c r="K144" s="17"/>
     </row>
-    <row r="145" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>41</v>
       </c>
@@ -4976,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="15">
@@ -5007,7 +4995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>21</v>
       </c>
@@ -5042,7 +5030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="15">
@@ -5073,7 +5061,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>21</v>
       </c>
@@ -5108,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="15">
@@ -5139,7 +5127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="15"/>
@@ -5152,7 +5140,7 @@
       <c r="J151" s="16"/>
       <c r="K151" s="17"/>
     </row>
-    <row r="152" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>42</v>
       </c>
@@ -5187,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="15">
@@ -5218,7 +5206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>21</v>
       </c>
@@ -5253,7 +5241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="15">
@@ -5284,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>21</v>
       </c>
@@ -5319,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="15">
@@ -5350,7 +5338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="18"/>
       <c r="B158" s="18"/>
       <c r="C158" s="18"/>
@@ -5363,7 +5351,7 @@
       <c r="J158" s="18"/>
       <c r="K158" s="18"/>
     </row>
-    <row r="159" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>43</v>
       </c>
@@ -5371,34 +5359,34 @@
         <v>20</v>
       </c>
       <c r="C159" s="9">
-        <v>3834</v>
+        <v>3838</v>
       </c>
       <c r="D159" s="13">
-        <v>1.1942288284471909</v>
+        <v>1.1946300786563369</v>
       </c>
       <c r="E159" s="11">
-        <v>3.4167970787689099</v>
+        <v>6.3574778530484624</v>
       </c>
       <c r="F159" s="11">
-        <v>13.719353155972874</v>
+        <v>22.120896300156332</v>
       </c>
       <c r="G159" s="11">
-        <v>34.97652582159624</v>
+        <v>48.35852006253257</v>
       </c>
       <c r="H159" s="11">
-        <v>63.093375065206047</v>
+        <v>77.931214174048975</v>
       </c>
       <c r="I159" s="11">
-        <v>84.194053208137717</v>
+        <v>92.808754559666497</v>
       </c>
       <c r="J159" s="11">
-        <v>95.800730307772568</v>
+        <v>99.140177175612294</v>
       </c>
       <c r="K159" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="15">
@@ -5429,7 +5417,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>21</v>
       </c>
@@ -5437,34 +5425,34 @@
         <v>22</v>
       </c>
       <c r="C161" s="9">
-        <v>7256</v>
+        <v>7259</v>
       </c>
       <c r="D161" s="13">
-        <v>1.8258084159300276</v>
+        <v>1.825768512975809</v>
       </c>
       <c r="E161" s="11">
-        <v>4.7271223814773977</v>
+        <v>9.4916655186664833</v>
       </c>
       <c r="F161" s="11">
-        <v>18.384785005512679</v>
+        <v>29.411764705882355</v>
       </c>
       <c r="G161" s="11">
-        <v>44.680264608599778</v>
+        <v>58.864857418377191</v>
       </c>
       <c r="H161" s="11">
-        <v>71.692392502756348</v>
+        <v>84.63975754236121</v>
       </c>
       <c r="I161" s="11">
-        <v>88.919514884233735</v>
+        <v>95.343711254993806</v>
       </c>
       <c r="J161" s="11">
-        <v>97.105843439911794</v>
+        <v>99.448959911833583</v>
       </c>
       <c r="K161" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="15">
@@ -5495,7 +5483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>21</v>
       </c>
@@ -5503,34 +5491,34 @@
         <v>23</v>
       </c>
       <c r="C163" s="9">
-        <v>11090</v>
+        <v>11097</v>
       </c>
       <c r="D163" s="13">
-        <v>1.5435857678330087</v>
+        <v>1.5437006247417775</v>
       </c>
       <c r="E163" s="11">
-        <v>4.2741208295761943</v>
+        <v>8.4076777507434439</v>
       </c>
       <c r="F163" s="11">
-        <v>16.771866546438233</v>
+        <v>26.890150491123727</v>
       </c>
       <c r="G163" s="11">
-        <v>41.325518485121734</v>
+        <v>55.231143552311437</v>
       </c>
       <c r="H163" s="11">
-        <v>68.719567177637515</v>
+        <v>82.319545823195455</v>
       </c>
       <c r="I163" s="11">
-        <v>87.285843101893605</v>
+        <v>94.466973055780841</v>
       </c>
       <c r="J163" s="11">
-        <v>96.654643823264195</v>
+        <v>99.342164548977195</v>
       </c>
       <c r="K163" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="15">
@@ -5561,7 +5549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="15"/>
@@ -5574,7 +5562,7 @@
       <c r="J165" s="16"/>
       <c r="K165" s="17"/>
     </row>
-    <row r="166" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>44</v>
       </c>
@@ -5582,34 +5570,34 @@
         <v>20</v>
       </c>
       <c r="C166" s="9">
-        <v>53019</v>
+        <v>53067</v>
       </c>
       <c r="D166" s="13">
-        <v>16.514558752071366</v>
+        <v>16.517830741025488</v>
       </c>
       <c r="E166" s="11">
-        <v>17.423942360285935</v>
+        <v>23.775604424595322</v>
       </c>
       <c r="F166" s="11">
-        <v>40.855165129481883</v>
+        <v>48.418037575140858</v>
       </c>
       <c r="G166" s="11">
-        <v>57.854731322733358</v>
+        <v>68.063014679556034</v>
       </c>
       <c r="H166" s="11">
-        <v>74.558177257209678</v>
+        <v>84.981250117775645</v>
       </c>
       <c r="I166" s="11">
-        <v>88.490918350025467</v>
+        <v>94.674656566227597</v>
       </c>
       <c r="J166" s="11">
-        <v>97.22175069314774</v>
+        <v>99.444098969227582</v>
       </c>
       <c r="K166" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="15">
@@ -5640,7 +5628,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>21</v>
       </c>
@@ -5648,34 +5636,34 @@
         <v>22</v>
       </c>
       <c r="C168" s="9">
-        <v>34145</v>
+        <v>34185</v>
       </c>
       <c r="D168" s="13">
-        <v>8.5918175801999421</v>
+        <v>8.5981397735332727</v>
       </c>
       <c r="E168" s="11">
-        <v>15.489822814467709</v>
+        <v>22.746818780166738</v>
       </c>
       <c r="F168" s="11">
-        <v>41.93879045248206</v>
+        <v>51.291502120813227</v>
       </c>
       <c r="G168" s="11">
-        <v>61.09825743154196</v>
+        <v>72.566915313734086</v>
       </c>
       <c r="H168" s="11">
-        <v>78.342363449992675</v>
+        <v>88.442299254058796</v>
       </c>
       <c r="I168" s="11">
-        <v>91.076292282911126</v>
+        <v>96.369752815562379</v>
       </c>
       <c r="J168" s="11">
-        <v>98.078781666422614</v>
+        <v>99.672370922919413</v>
       </c>
       <c r="K168" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="15">
@@ -5706,7 +5694,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>21</v>
       </c>
@@ -5714,34 +5702,34 @@
         <v>23</v>
       </c>
       <c r="C170" s="9">
-        <v>87164</v>
+        <v>87252</v>
       </c>
       <c r="D170" s="13">
-        <v>12.132110898773343</v>
+        <v>12.137601776152977</v>
       </c>
       <c r="E170" s="11">
-        <v>16.666284245789544</v>
+        <v>23.372530142575528</v>
       </c>
       <c r="F170" s="11">
-        <v>41.279656739020695</v>
+        <v>49.543849997707788</v>
       </c>
       <c r="G170" s="11">
-        <v>59.125326969849937</v>
+        <v>69.827625727777004</v>
       </c>
       <c r="H170" s="11">
-        <v>76.040567206644951</v>
+        <v>86.337275936368215</v>
       </c>
       <c r="I170" s="11">
-        <v>89.503694185672984</v>
+        <v>95.338788795672301</v>
       </c>
       <c r="J170" s="11">
-        <v>97.557477857831216</v>
+        <v>99.533535047907208</v>
       </c>
       <c r="K170" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="15">
@@ -5772,7 +5760,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="15"/>
@@ -5785,7 +5773,7 @@
       <c r="J172" s="16"/>
       <c r="K172" s="17"/>
     </row>
-    <row r="173" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>45</v>
       </c>
@@ -5793,34 +5781,34 @@
         <v>20</v>
       </c>
       <c r="C173" s="9">
-        <v>10011</v>
+        <v>10020</v>
       </c>
       <c r="D173" s="13">
-        <v>3.1182641631676655</v>
+        <v>3.1188622689256111</v>
       </c>
       <c r="E173" s="11">
-        <v>31.874937568674461</v>
+        <v>40.768463073852296</v>
       </c>
       <c r="F173" s="11">
-        <v>61.422435321146743</v>
+        <v>70.688622754491021</v>
       </c>
       <c r="G173" s="11">
-        <v>79.752272500249717</v>
+        <v>87.115768463073849</v>
       </c>
       <c r="H173" s="11">
-        <v>90.890020976925385</v>
+        <v>95.538922155688624</v>
       </c>
       <c r="I173" s="11">
-        <v>96.643691938867249</v>
+        <v>98.712574850299404</v>
       </c>
       <c r="J173" s="11">
-        <v>98.821296573768862</v>
+        <v>99.830339321357286</v>
       </c>
       <c r="K173" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="15">
@@ -5851,7 +5839,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>21</v>
       </c>
@@ -5859,34 +5847,34 @@
         <v>22</v>
       </c>
       <c r="C175" s="9">
-        <v>4114</v>
+        <v>4118</v>
       </c>
       <c r="D175" s="13">
-        <v>1.0351951244674935</v>
+        <v>1.0357507558113215</v>
       </c>
       <c r="E175" s="11">
-        <v>32.03694701020904</v>
+        <v>41.112190383681394</v>
       </c>
       <c r="F175" s="11">
-        <v>62.736995624696156</v>
+        <v>72.170956775133561</v>
       </c>
       <c r="G175" s="11">
-        <v>81.818181818181827</v>
+        <v>89.266634288489556</v>
       </c>
       <c r="H175" s="11">
-        <v>93.023821098687407</v>
+        <v>96.576007770762502</v>
       </c>
       <c r="I175" s="11">
-        <v>97.399124939231896</v>
+        <v>98.931520155415257</v>
       </c>
       <c r="J175" s="11">
-        <v>99.27078269324258</v>
+        <v>99.80573093734823</v>
       </c>
       <c r="K175" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="15">
@@ -5917,7 +5905,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>21</v>
       </c>
@@ -5925,34 +5913,34 @@
         <v>23</v>
       </c>
       <c r="C177" s="9">
-        <v>14125</v>
+        <v>14138</v>
       </c>
       <c r="D177" s="13">
-        <v>1.9660188431597159</v>
+        <v>1.9667333002252188</v>
       </c>
       <c r="E177" s="11">
-        <v>31.92212389380531</v>
+        <v>40.868581128872542</v>
       </c>
       <c r="F177" s="11">
-        <v>61.805309734513273</v>
+        <v>71.120384778610841</v>
       </c>
       <c r="G177" s="11">
-        <v>80.353982300884951</v>
+        <v>87.742254915829676</v>
       </c>
       <c r="H177" s="11">
-        <v>91.511504424778749</v>
+        <v>95.840995897580981</v>
       </c>
       <c r="I177" s="11">
-        <v>96.863716814159289</v>
+        <v>98.776347432451544</v>
       </c>
       <c r="J177" s="11">
-        <v>98.952212389380534</v>
+        <v>99.823171594284915</v>
       </c>
       <c r="K177" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="15">
@@ -5983,7 +5971,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="15"/>
@@ -5996,7 +5984,7 @@
       <c r="J179" s="16"/>
       <c r="K179" s="17"/>
     </row>
-    <row r="180" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>46</v>
       </c>
@@ -6007,31 +5995,31 @@
         <v>8729</v>
       </c>
       <c r="D180" s="13">
-        <v>2.7189419518819853</v>
+        <v>2.717020832879407</v>
       </c>
       <c r="E180" s="11">
-        <v>1.3059915225111696</v>
+        <v>3.4024515981212056</v>
       </c>
       <c r="F180" s="11">
-        <v>9.1877649215259485</v>
+        <v>16.725856340932523</v>
       </c>
       <c r="G180" s="11">
-        <v>40.222247680146637</v>
+        <v>49.398556535685643</v>
       </c>
       <c r="H180" s="11">
-        <v>77.98144117310116</v>
+        <v>85.267499140795053</v>
       </c>
       <c r="I180" s="11">
-        <v>95.257188681406802</v>
+        <v>97.800435330507511</v>
       </c>
       <c r="J180" s="11">
-        <v>99.19807538091419</v>
+        <v>99.82815901019589</v>
       </c>
       <c r="K180" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="15">
@@ -6062,7 +6050,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>21</v>
       </c>
@@ -6073,31 +6061,31 @@
         <v>10788</v>
       </c>
       <c r="D182" s="13">
-        <v>2.714556393474798</v>
+        <v>2.713375219449377</v>
       </c>
       <c r="E182" s="11">
-        <v>2.7067111605487577</v>
+        <v>6.6370040786058588</v>
       </c>
       <c r="F182" s="11">
-        <v>17.482387838338894</v>
+        <v>28.809788654060064</v>
       </c>
       <c r="G182" s="11">
-        <v>56.358917315535784</v>
+        <v>65.582128290693362</v>
       </c>
       <c r="H182" s="11">
-        <v>87.523173896922501</v>
+        <v>92.52873563218391</v>
       </c>
       <c r="I182" s="11">
-        <v>97.664071190211345</v>
+        <v>99.045235446792731</v>
       </c>
       <c r="J182" s="11">
-        <v>99.657026325546909</v>
+        <v>99.944382647385993</v>
       </c>
       <c r="K182" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="15">
@@ -6128,7 +6116,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>21</v>
       </c>
@@ -6139,31 +6127,31 @@
         <v>19517</v>
       </c>
       <c r="D184" s="13">
-        <v>2.7165160893414639</v>
+        <v>2.715004514110595</v>
       </c>
       <c r="E184" s="11">
-        <v>2.0802377414561661</v>
+        <v>5.1903468770815184</v>
       </c>
       <c r="F184" s="11">
-        <v>13.772608495158067</v>
+        <v>23.405236460521596</v>
       </c>
       <c r="G184" s="11">
-        <v>49.141773838192343</v>
+        <v>58.344007788082187</v>
       </c>
       <c r="H184" s="11">
-        <v>83.255623302761691</v>
+        <v>89.281139519393349</v>
       </c>
       <c r="I184" s="11">
-        <v>96.587590305887176</v>
+        <v>98.488497207562645</v>
       </c>
       <c r="J184" s="11">
-        <v>99.451760004098986</v>
+        <v>99.892401496131583</v>
       </c>
       <c r="K184" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="15">
@@ -6194,7 +6182,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="15"/>
@@ -6207,7 +6195,7 @@
       <c r="J186" s="16"/>
       <c r="K186" s="17"/>
     </row>
-    <row r="187" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>47</v>
       </c>
@@ -6218,31 +6206,31 @@
         <v>2617</v>
       </c>
       <c r="D187" s="13">
-        <v>0.81515306313153335</v>
+        <v>0.81457710157468299</v>
       </c>
       <c r="E187" s="11">
-        <v>11.654566297286969</v>
+        <v>14.100114635078334</v>
       </c>
       <c r="F187" s="11">
-        <v>34.810852120748947</v>
+        <v>40.542606037447456</v>
       </c>
       <c r="G187" s="11">
-        <v>62.361482613679783</v>
+        <v>69.774551012609848</v>
       </c>
       <c r="H187" s="11">
-        <v>84.715322888803982</v>
+        <v>90.064959877722586</v>
       </c>
       <c r="I187" s="11">
-        <v>95.10890332441727</v>
+        <v>97.783721818876586</v>
       </c>
       <c r="J187" s="11">
-        <v>98.930072602216285</v>
+        <v>99.847153228888047</v>
       </c>
       <c r="K187" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="15">
@@ -6273,7 +6261,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>21</v>
       </c>
@@ -6284,31 +6272,31 @@
         <v>2414</v>
       </c>
       <c r="D189" s="13">
-        <v>0.60742854410902514</v>
+        <v>0.60716423616525739</v>
       </c>
       <c r="E189" s="11">
-        <v>11.101905550952775</v>
+        <v>13.090306545153272</v>
       </c>
       <c r="F189" s="11">
-        <v>36.785418392709197</v>
+        <v>42.25352112676056</v>
       </c>
       <c r="G189" s="11">
-        <v>67.481358740679383</v>
+        <v>72.990886495443249</v>
       </c>
       <c r="H189" s="11">
-        <v>87.282518641259315</v>
+        <v>92.087821043910523</v>
       </c>
       <c r="I189" s="11">
-        <v>96.313173156586572</v>
+        <v>98.342999171499585</v>
       </c>
       <c r="J189" s="11">
-        <v>99.585749792874907</v>
+        <v>99.958574979287491</v>
       </c>
       <c r="K189" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="15">
@@ -6339,7 +6327,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>21</v>
       </c>
@@ -6350,31 +6338,31 @@
         <v>5031</v>
       </c>
       <c r="D191" s="13">
-        <v>0.70025067610170133</v>
+        <v>0.69986102938414729</v>
       </c>
       <c r="E191" s="11">
-        <v>11.389385807990459</v>
+        <v>13.615583383025243</v>
       </c>
       <c r="F191" s="11">
-        <v>35.758298548996223</v>
+        <v>41.36354601470881</v>
       </c>
       <c r="G191" s="11">
-        <v>64.818127608825279</v>
+        <v>71.31782945736434</v>
       </c>
       <c r="H191" s="11">
-        <v>85.947127807592921</v>
+        <v>91.035579407672429</v>
       </c>
       <c r="I191" s="11">
-        <v>95.686742198370098</v>
+        <v>98.052077121844562</v>
       </c>
       <c r="J191" s="11">
-        <v>99.244682965613194</v>
+        <v>99.900616179685954</v>
       </c>
       <c r="K191" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="15">
@@ -6405,7 +6393,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="15"/>
@@ -6418,7 +6406,7 @@
       <c r="J193" s="16"/>
       <c r="K193" s="17"/>
     </row>
-    <row r="194" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>48</v>
       </c>
@@ -6429,19 +6417,19 @@
         <v>74</v>
       </c>
       <c r="D194" s="13">
-        <v>2.3049800027410573E-2</v>
+        <v>2.3033513762524473E-2</v>
       </c>
       <c r="E194" s="11">
-        <v>22.972972972972975</v>
+        <v>24.324324324324326</v>
       </c>
       <c r="F194" s="11">
-        <v>47.297297297297298</v>
+        <v>52.702702702702695</v>
       </c>
       <c r="G194" s="11">
-        <v>72.972972972972968</v>
+        <v>79.729729729729726</v>
       </c>
       <c r="H194" s="11">
-        <v>91.891891891891902</v>
+        <v>95.945945945945937</v>
       </c>
       <c r="I194" s="11">
         <v>100</v>
@@ -6453,7 +6441,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="15">
@@ -6484,7 +6472,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>21</v>
       </c>
@@ -6492,25 +6480,25 @@
         <v>22</v>
       </c>
       <c r="C196" s="9">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D196" s="13">
-        <v>0.24810461660791169</v>
+        <v>0.2482481777527378</v>
       </c>
       <c r="E196" s="11">
-        <v>11.561866125760648</v>
+        <v>13.779128672745694</v>
       </c>
       <c r="F196" s="11">
-        <v>36.105476673427994</v>
+        <v>43.059777102330294</v>
       </c>
       <c r="G196" s="11">
-        <v>70.182555780933058</v>
+        <v>77.608915906788241</v>
       </c>
       <c r="H196" s="11">
-        <v>91.784989858012167</v>
+        <v>95.744680851063833</v>
       </c>
       <c r="I196" s="11">
-        <v>98.884381338742386</v>
+        <v>99.79736575481256</v>
       </c>
       <c r="J196" s="11">
         <v>100</v>
@@ -6519,7 +6507,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="15">
@@ -6550,7 +6538,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>21</v>
       </c>
@@ -6558,25 +6546,25 @@
         <v>23</v>
       </c>
       <c r="C198" s="9">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D198" s="13">
-        <v>0.1475384052211893</v>
+        <v>0.14759541883851726</v>
       </c>
       <c r="E198" s="11">
-        <v>12.358490566037736</v>
+        <v>14.514608859566447</v>
       </c>
       <c r="F198" s="11">
-        <v>36.886792452830186</v>
+        <v>43.732327992459943</v>
       </c>
       <c r="G198" s="11">
-        <v>70.377358490566039</v>
+        <v>77.756833176248819</v>
       </c>
       <c r="H198" s="11">
-        <v>91.79245283018868</v>
+        <v>95.758718190386432</v>
       </c>
       <c r="I198" s="11">
-        <v>98.962264150943398</v>
+        <v>99.811498586239395</v>
       </c>
       <c r="J198" s="11">
         <v>100</v>
@@ -6585,7 +6573,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="15">
@@ -6616,7 +6604,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="15"/>
@@ -6629,7 +6617,7 @@
       <c r="J200" s="16"/>
       <c r="K200" s="17"/>
     </row>
-    <row r="201" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>49</v>
       </c>
@@ -6640,31 +6628,31 @@
         <v>5786</v>
       </c>
       <c r="D201" s="13">
-        <v>1.8022451751161837</v>
+        <v>1.8009717652698189</v>
       </c>
       <c r="E201" s="11">
-        <v>3.4047701348081576</v>
+        <v>6.187348772900104</v>
       </c>
       <c r="F201" s="11">
-        <v>14.362253715865883</v>
+        <v>23.384030418250951</v>
       </c>
       <c r="G201" s="11">
-        <v>39.163498098859314</v>
+        <v>52.24680262703076</v>
       </c>
       <c r="H201" s="11">
-        <v>68.700311095748361</v>
+        <v>81.610784652609752</v>
       </c>
       <c r="I201" s="11">
-        <v>89.146215001728308</v>
+        <v>95.454545454545453</v>
       </c>
       <c r="J201" s="11">
-        <v>97.545800207397164</v>
+        <v>99.827169028689937</v>
       </c>
       <c r="K201" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="15">
@@ -6695,7 +6683,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>21</v>
       </c>
@@ -6703,34 +6691,34 @@
         <v>22</v>
       </c>
       <c r="C203" s="9">
-        <v>4464</v>
+        <v>4465</v>
       </c>
       <c r="D203" s="13">
-        <v>1.1232647145412957</v>
+        <v>1.1230274707861947</v>
       </c>
       <c r="E203" s="11">
-        <v>9.4982078853046588</v>
+        <v>15.498320268756999</v>
       </c>
       <c r="F203" s="11">
-        <v>28.49462365591398</v>
+        <v>41.433370660694294</v>
       </c>
       <c r="G203" s="11">
-        <v>56.518817204301072</v>
+        <v>68.443449048152289</v>
       </c>
       <c r="H203" s="11">
-        <v>80.869175627240139</v>
+        <v>89.966405375139985</v>
       </c>
       <c r="I203" s="11">
-        <v>93.951612903225808</v>
+        <v>98.006718924972006</v>
       </c>
       <c r="J203" s="11">
-        <v>98.790322580645167</v>
+        <v>99.910414333706612</v>
       </c>
       <c r="K203" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="15">
@@ -6761,7 +6749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>21</v>
       </c>
@@ -6769,34 +6757,34 @@
         <v>23</v>
       </c>
       <c r="C205" s="9">
-        <v>10250</v>
+        <v>10251</v>
       </c>
       <c r="D205" s="13">
-        <v>1.426668541053953</v>
+        <v>1.426013796902583</v>
       </c>
       <c r="E205" s="11">
-        <v>6.0585365853658537</v>
+        <v>10.242903131401814</v>
       </c>
       <c r="F205" s="11">
-        <v>20.517073170731706</v>
+        <v>31.245732123695248</v>
       </c>
       <c r="G205" s="11">
-        <v>46.721951219512199</v>
+        <v>59.301531557896794</v>
       </c>
       <c r="H205" s="11">
-        <v>74</v>
+        <v>85.25021949078139</v>
       </c>
       <c r="I205" s="11">
-        <v>91.239024390243912</v>
+        <v>96.566188664520539</v>
       </c>
       <c r="J205" s="11">
-        <v>98.087804878048786</v>
+        <v>99.863427958247968</v>
       </c>
       <c r="K205" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="15">
@@ -6827,7 +6815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="18"/>
       <c r="B207" s="18"/>
       <c r="C207" s="18"/>
@@ -6840,7 +6828,7 @@
       <c r="J207" s="18"/>
       <c r="K207" s="18"/>
     </row>
-    <row r="208" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>50</v>
       </c>
@@ -6848,34 +6836,34 @@
         <v>20</v>
       </c>
       <c r="C208" s="9">
-        <v>26999</v>
+        <v>27020</v>
       </c>
       <c r="D208" s="13">
-        <v>8.4097506883791624</v>
+        <v>8.4103451603163677</v>
       </c>
       <c r="E208" s="11">
-        <v>9.8929589984814257</v>
+        <v>16.317542561065874</v>
       </c>
       <c r="F208" s="11">
-        <v>29.797399903700139</v>
+        <v>39.977794226498894</v>
       </c>
       <c r="G208" s="11">
-        <v>50.390755213156048</v>
+        <v>63.44929681717246</v>
       </c>
       <c r="H208" s="11">
-        <v>70.624837956961372</v>
+        <v>82.805329385640263</v>
       </c>
       <c r="I208" s="11">
-        <v>87.018037705100198</v>
+        <v>94.496669133974834</v>
       </c>
       <c r="J208" s="11">
-        <v>96.459128115856146</v>
+        <v>99.548482605477432</v>
       </c>
       <c r="K208" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="15">
@@ -6906,7 +6894,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>21</v>
       </c>
@@ -6914,34 +6902,34 @@
         <v>22</v>
       </c>
       <c r="C210" s="9">
-        <v>7997</v>
+        <v>8004</v>
       </c>
       <c r="D210" s="13">
-        <v>2.0122643194862775</v>
+        <v>2.0131493563656666</v>
       </c>
       <c r="E210" s="11">
-        <v>11.379267225209453</v>
+        <v>19.477761119440277</v>
       </c>
       <c r="F210" s="11">
-        <v>33.71264224084031</v>
+        <v>45.42728635682159</v>
       </c>
       <c r="G210" s="11">
-        <v>55.708390646492433</v>
+        <v>69.465267366316837</v>
       </c>
       <c r="H210" s="11">
-        <v>75.540827810428908</v>
+        <v>87.281359320339831</v>
       </c>
       <c r="I210" s="11">
-        <v>90.03376266099788</v>
+        <v>96.376811594202891</v>
       </c>
       <c r="J210" s="11">
-        <v>97.586594973114913</v>
+        <v>99.650174912543733</v>
       </c>
       <c r="K210" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="15">
@@ -6972,7 +6960,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>21</v>
       </c>
@@ -6980,34 +6968,34 @@
         <v>23</v>
       </c>
       <c r="C212" s="9">
-        <v>34996</v>
+        <v>35024</v>
       </c>
       <c r="D212" s="13">
-        <v>4.8709943670950384</v>
+        <v>4.8721790286524307</v>
       </c>
       <c r="E212" s="11">
-        <v>10.232598011201279</v>
+        <v>17.039744175422566</v>
       </c>
       <c r="F212" s="11">
-        <v>30.692079094753687</v>
+        <v>41.223161260849707</v>
       </c>
       <c r="G212" s="11">
-        <v>51.605897816893368</v>
+        <v>64.824120603015075</v>
       </c>
       <c r="H212" s="11">
-        <v>71.748199794262206</v>
+        <v>83.828232069438101</v>
       </c>
       <c r="I212" s="11">
-        <v>87.707166533318087</v>
+        <v>94.92633622658748</v>
       </c>
       <c r="J212" s="11">
-        <v>96.716767630586347</v>
+        <v>99.571722247601642</v>
       </c>
       <c r="K212" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="15">
@@ -7038,7 +7026,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="15"/>
@@ -7051,7 +7039,7 @@
       <c r="J214" s="16"/>
       <c r="K214" s="17"/>
     </row>
-    <row r="215" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>51</v>
       </c>
@@ -7059,34 +7047,34 @@
         <v>20</v>
       </c>
       <c r="C215" s="9">
-        <v>8426</v>
+        <v>8425</v>
       </c>
       <c r="D215" s="13">
-        <v>2.6245623652832633</v>
+        <v>2.6223966682333608</v>
       </c>
       <c r="E215" s="11">
-        <v>7.417517208639925</v>
+        <v>12.913946587537092</v>
       </c>
       <c r="F215" s="11">
-        <v>26.786138143840493</v>
+        <v>37.744807121661722</v>
       </c>
       <c r="G215" s="11">
-        <v>55.518632803228108</v>
+        <v>66.445103857566764</v>
       </c>
       <c r="H215" s="11">
-        <v>81.023023973415619</v>
+        <v>88.890207715133528</v>
       </c>
       <c r="I215" s="11">
-        <v>93.876097792546872</v>
+        <v>97.459940652818986</v>
       </c>
       <c r="J215" s="11">
-        <v>98.552100640873491</v>
+        <v>99.703264094955486</v>
       </c>
       <c r="K215" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="15">
@@ -7117,7 +7105,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>21</v>
       </c>
@@ -7125,34 +7113,34 @@
         <v>22</v>
       </c>
       <c r="C217" s="9">
-        <v>7794</v>
+        <v>7796</v>
       </c>
       <c r="D217" s="13">
-        <v>1.9611839572434719</v>
+        <v>1.9608336309628609</v>
       </c>
       <c r="E217" s="11">
-        <v>8.6605080831408774</v>
+        <v>15.12314007183171</v>
       </c>
       <c r="F217" s="11">
-        <v>29.651013600205285</v>
+        <v>41.841970241149305</v>
       </c>
       <c r="G217" s="11">
-        <v>59.225044906338212</v>
+        <v>69.368907131862485</v>
       </c>
       <c r="H217" s="11">
-        <v>82.050295098793953</v>
+        <v>89.828116983068242</v>
       </c>
       <c r="I217" s="11">
-        <v>94.251988709263529</v>
+        <v>97.344792201128783</v>
       </c>
       <c r="J217" s="11">
-        <v>98.473184500898128</v>
+        <v>99.67932272960492</v>
       </c>
       <c r="K217" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="15">
@@ -7183,7 +7171,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>21</v>
       </c>
@@ -7191,34 +7179,34 @@
         <v>23</v>
       </c>
       <c r="C219" s="9">
-        <v>16220</v>
+        <v>16221</v>
       </c>
       <c r="D219" s="13">
-        <v>2.2576159742336701</v>
+        <v>2.2564988586047017</v>
       </c>
       <c r="E219" s="11">
-        <v>8.0147965474722564</v>
+        <v>13.975710498736207</v>
       </c>
       <c r="F219" s="11">
-        <v>28.162762022194819</v>
+        <v>39.713951051106591</v>
       </c>
       <c r="G219" s="11">
-        <v>57.299630086313194</v>
+        <v>67.850317489673884</v>
       </c>
       <c r="H219" s="11">
-        <v>81.516646115906283</v>
+        <v>89.340977744898581</v>
       </c>
       <c r="I219" s="11">
-        <v>94.056720098643652</v>
+        <v>97.404598976635228</v>
       </c>
       <c r="J219" s="11">
-        <v>98.514180024660917</v>
+        <v>99.691757598175201</v>
       </c>
       <c r="K219" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="15">
@@ -7249,7 +7237,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="15"/>
@@ -7262,7 +7250,7 @@
       <c r="J221" s="16"/>
       <c r="K221" s="17"/>
     </row>
-    <row r="222" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>52</v>
       </c>
@@ -7270,34 +7258,34 @@
         <v>20</v>
       </c>
       <c r="C222" s="9">
-        <v>16207</v>
+        <v>16208</v>
       </c>
       <c r="D222" s="13">
-        <v>5.0482176897870694</v>
+        <v>5.0449620413918472</v>
       </c>
       <c r="E222" s="11">
-        <v>2.1472203368914666</v>
+        <v>4.8247778874629814</v>
       </c>
       <c r="F222" s="11">
-        <v>10.08823347936077</v>
+        <v>18.873395853899307</v>
       </c>
       <c r="G222" s="11">
-        <v>31.307459739618682</v>
+        <v>43.94743336623889</v>
       </c>
       <c r="H222" s="11">
-        <v>61.775775899302765</v>
+        <v>75.006169792694962</v>
       </c>
       <c r="I222" s="11">
-        <v>85.240945270562108</v>
+        <v>93.145360315893384</v>
       </c>
       <c r="J222" s="11">
-        <v>96.137471462948113</v>
+        <v>99.506416584402771</v>
       </c>
       <c r="K222" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="15">
@@ -7328,7 +7316,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>21</v>
       </c>
@@ -7336,34 +7324,34 @@
         <v>22</v>
       </c>
       <c r="C224" s="9">
-        <v>46337</v>
+        <v>46340</v>
       </c>
       <c r="D224" s="13">
-        <v>11.659658843570794</v>
+        <v>11.655339976759745</v>
       </c>
       <c r="E224" s="11">
-        <v>5.0456438699095756</v>
+        <v>10.472593871385412</v>
       </c>
       <c r="F224" s="11">
-        <v>19.414290955392019</v>
+        <v>32.473025463962017</v>
       </c>
       <c r="G224" s="11">
-        <v>48.106264971836758</v>
+        <v>61.873111782477338</v>
       </c>
       <c r="H224" s="11">
-        <v>76.450784470293726</v>
+        <v>86.430729391454463</v>
       </c>
       <c r="I224" s="11">
-        <v>92.377581630230694</v>
+        <v>96.78031937850669</v>
       </c>
       <c r="J224" s="11">
-        <v>98.074972484191903</v>
+        <v>99.697885196374628</v>
       </c>
       <c r="K224" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="15">
@@ -7394,7 +7382,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>21</v>
       </c>
@@ -7402,34 +7390,34 @@
         <v>23</v>
       </c>
       <c r="C226" s="9">
-        <v>62544</v>
+        <v>62548</v>
       </c>
       <c r="D226" s="13">
-        <v>8.7053226567491162</v>
+        <v>8.701035115468029</v>
       </c>
       <c r="E226" s="11">
-        <v>4.2945766180608853</v>
+        <v>9.0090810257722076</v>
       </c>
       <c r="F226" s="11">
-        <v>16.997633665899205</v>
+        <v>28.948967193195625</v>
       </c>
       <c r="G226" s="11">
-        <v>43.753197748784856</v>
+        <v>57.22804885847669</v>
       </c>
       <c r="H226" s="11">
-        <v>72.6480557687388</v>
+        <v>83.470294813583166</v>
       </c>
       <c r="I226" s="11">
-        <v>90.528268099258128</v>
+        <v>95.838396111786153</v>
       </c>
       <c r="J226" s="11">
-        <v>97.572908672294702</v>
+        <v>99.648270128541284</v>
       </c>
       <c r="K226" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="15">
@@ -7460,7 +7448,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="15"/>
@@ -7473,7 +7461,7 @@
       <c r="J228" s="16"/>
       <c r="K228" s="17"/>
     </row>
-    <row r="229" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>53</v>
       </c>
@@ -7484,31 +7472,31 @@
         <v>3948</v>
       </c>
       <c r="D229" s="13">
-        <v>1.2297379798407695</v>
+        <v>1.2288690856006301</v>
       </c>
       <c r="E229" s="11">
-        <v>5.6737588652482271</v>
+        <v>11.170212765957446</v>
       </c>
       <c r="F229" s="11">
-        <v>24.164133738601823</v>
+        <v>34.726443768996958</v>
       </c>
       <c r="G229" s="11">
-        <v>52.077001013171234</v>
+        <v>62.386018237082062</v>
       </c>
       <c r="H229" s="11">
-        <v>77.431610942249236</v>
+        <v>86.372847011144884</v>
       </c>
       <c r="I229" s="11">
-        <v>92.325227963525833</v>
+        <v>96.656534954407292</v>
       </c>
       <c r="J229" s="11">
-        <v>98.125633232016213</v>
+        <v>99.670719351570412</v>
       </c>
       <c r="K229" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="15">
@@ -7539,7 +7527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>21</v>
       </c>
@@ -7547,34 +7535,34 @@
         <v>22</v>
       </c>
       <c r="C231" s="9">
-        <v>10619</v>
+        <v>10616</v>
       </c>
       <c r="D231" s="13">
-        <v>2.6720313628391623</v>
+        <v>2.670114138827826</v>
       </c>
       <c r="E231" s="11">
-        <v>5.9798474432620781</v>
+        <v>11.322532027128862</v>
       </c>
       <c r="F231" s="11">
-        <v>25.520293812976742</v>
+        <v>36.623963828183875</v>
       </c>
       <c r="G231" s="11">
-        <v>55.476033524814014</v>
+        <v>66.41861341371515</v>
       </c>
       <c r="H231" s="11">
-        <v>80.807985686034471</v>
+        <v>89.449886963074604</v>
       </c>
       <c r="I231" s="11">
-        <v>93.897730483096339</v>
+        <v>97.616804822908819</v>
       </c>
       <c r="J231" s="11">
-        <v>98.709859685469439</v>
+        <v>99.839864355689528</v>
       </c>
       <c r="K231" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="15">
@@ -7605,7 +7593,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>21</v>
       </c>
@@ -7613,34 +7601,34 @@
         <v>23</v>
       </c>
       <c r="C233" s="9">
-        <v>14567</v>
+        <v>14564</v>
       </c>
       <c r="D233" s="13">
-        <v>2.0275395743934572</v>
+        <v>2.0259940433215506</v>
       </c>
       <c r="E233" s="11">
-        <v>5.8968902313448197</v>
+        <v>11.28124141719308</v>
       </c>
       <c r="F233" s="11">
-        <v>25.15274250017162</v>
+        <v>36.109585278769565</v>
       </c>
       <c r="G233" s="11">
-        <v>54.554815679275073</v>
+        <v>65.325460038450984</v>
       </c>
       <c r="H233" s="11">
-        <v>79.892908629093156</v>
+        <v>88.615764899752818</v>
       </c>
       <c r="I233" s="11">
-        <v>93.471545273563535</v>
+        <v>97.356495468277942</v>
       </c>
       <c r="J233" s="11">
-        <v>98.551520560170246</v>
+        <v>99.794012633891796</v>
       </c>
       <c r="K233" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="15">
@@ -7671,7 +7659,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="15"/>
@@ -7684,7 +7672,7 @@
       <c r="J235" s="16"/>
       <c r="K235" s="17"/>
     </row>
-    <row r="236" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
         <v>54</v>
       </c>
@@ -7695,31 +7683,31 @@
         <v>8306</v>
       </c>
       <c r="D236" s="13">
-        <v>2.5871843111847594</v>
+        <v>2.5853562879936254</v>
       </c>
       <c r="E236" s="11">
-        <v>2.6005297375391283</v>
+        <v>4.9843486636166627</v>
       </c>
       <c r="F236" s="11">
-        <v>11.846857693233808</v>
+        <v>18.769564170479171</v>
       </c>
       <c r="G236" s="11">
-        <v>38.345774139176498</v>
+        <v>47.640260052973751</v>
       </c>
       <c r="H236" s="11">
-        <v>69.564170479171679</v>
+        <v>80.122802793161569</v>
       </c>
       <c r="I236" s="11">
-        <v>89.790512882253793</v>
+        <v>95.208283168793642</v>
       </c>
       <c r="J236" s="11">
-        <v>97.459667710089093</v>
+        <v>99.590657356128105</v>
       </c>
       <c r="K236" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="15">
@@ -7750,7 +7738,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
         <v>21</v>
       </c>
@@ -7758,34 +7746,34 @@
         <v>22</v>
       </c>
       <c r="C238" s="9">
-        <v>28483</v>
+        <v>28484</v>
       </c>
       <c r="D238" s="13">
-        <v>7.1671032402060328</v>
+        <v>7.1642361652573276</v>
       </c>
       <c r="E238" s="11">
-        <v>5.1504406136993994</v>
+        <v>9.3877264429153211</v>
       </c>
       <c r="F238" s="11">
-        <v>20.162904188463294</v>
+        <v>30.044937508776858</v>
       </c>
       <c r="G238" s="11">
-        <v>51.925710072674924</v>
+        <v>61.876843140008432</v>
       </c>
       <c r="H238" s="11">
-        <v>80.117965101990663</v>
+        <v>88.270608060665637</v>
       </c>
       <c r="I238" s="11">
-        <v>94.161429624688409</v>
+        <v>97.51088330290689</v>
       </c>
       <c r="J238" s="11">
-        <v>98.690446933258443</v>
+        <v>99.782333941862106</v>
       </c>
       <c r="K238" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="15">
@@ -7816,7 +7804,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>21</v>
       </c>
@@ -7824,34 +7812,34 @@
         <v>23</v>
       </c>
       <c r="C240" s="9">
-        <v>36789</v>
+        <v>36790</v>
       </c>
       <c r="D240" s="13">
-        <v>5.1205569713984271</v>
+        <v>5.1178468040236096</v>
       </c>
       <c r="E240" s="11">
-        <v>4.5747370137812933</v>
+        <v>8.3935852133731981</v>
       </c>
       <c r="F240" s="11">
-        <v>18.285357036070565</v>
+        <v>27.499320467518345</v>
       </c>
       <c r="G240" s="11">
-        <v>48.859713501318332</v>
+        <v>58.662680076107641</v>
       </c>
       <c r="H240" s="11">
-        <v>77.735192584739991</v>
+        <v>86.431095406360427</v>
       </c>
       <c r="I240" s="11">
-        <v>93.174590230775493</v>
+        <v>96.991030171242187</v>
       </c>
       <c r="J240" s="11">
-        <v>98.412568974421703</v>
+        <v>99.739059527045399</v>
       </c>
       <c r="K240" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="15">
@@ -7882,7 +7870,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="15"/>
@@ -7895,7 +7883,7 @@
       <c r="J242" s="16"/>
       <c r="K242" s="17"/>
     </row>
-    <row r="243" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
         <v>55</v>
       </c>
@@ -7906,31 +7894,31 @@
         <v>2457</v>
       </c>
       <c r="D243" s="13">
-        <v>0.76531565766686183</v>
+        <v>0.76477490965571115</v>
       </c>
       <c r="E243" s="11">
-        <v>15.832315832315832</v>
+        <v>21.978021978021978</v>
       </c>
       <c r="F243" s="11">
-        <v>42.857142857142854</v>
+        <v>54.09035409035409</v>
       </c>
       <c r="G243" s="11">
-        <v>70.533170533170534</v>
+        <v>80.138380138380143</v>
       </c>
       <c r="H243" s="11">
-        <v>89.092389092389084</v>
+        <v>94.505494505494497</v>
       </c>
       <c r="I243" s="11">
-        <v>96.581196581196579</v>
+        <v>98.901098901098905</v>
       </c>
       <c r="J243" s="11">
-        <v>99.511599511599513</v>
+        <v>99.918599918599909</v>
       </c>
       <c r="K243" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="15">
@@ -7961,7 +7949,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
         <v>21</v>
       </c>
@@ -7972,31 +7960,31 @@
         <v>5576</v>
       </c>
       <c r="D245" s="13">
-        <v>1.4030743835757764</v>
+        <v>1.4024638694521439</v>
       </c>
       <c r="E245" s="11">
-        <v>15.871592539454808</v>
+        <v>22.094691535150645</v>
       </c>
       <c r="F245" s="11">
-        <v>44.171449067431851</v>
+        <v>54.626972740315637</v>
       </c>
       <c r="G245" s="11">
-        <v>71.108321377331421</v>
+        <v>80.649210903873751</v>
       </c>
       <c r="H245" s="11">
-        <v>89.042324246771869</v>
+        <v>94.763271162123388</v>
       </c>
       <c r="I245" s="11">
-        <v>96.700143472022958</v>
+        <v>99.031563845050215</v>
       </c>
       <c r="J245" s="11">
-        <v>99.605451936872313</v>
+        <v>99.982065997130562</v>
       </c>
       <c r="K245" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="15">
@@ -8027,7 +8015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
         <v>21</v>
       </c>
@@ -8038,31 +8026,31 @@
         <v>8033</v>
       </c>
       <c r="D247" s="13">
-        <v>1.1180905746620884</v>
+        <v>1.1174684255700369</v>
       </c>
       <c r="E247" s="11">
-        <v>15.859579235652932</v>
+        <v>22.059006597784141</v>
       </c>
       <c r="F247" s="11">
-        <v>43.769451014564922</v>
+        <v>54.462840781775178</v>
       </c>
       <c r="G247" s="11">
-        <v>70.932403834183987</v>
+        <v>80.492966513133325</v>
       </c>
       <c r="H247" s="11">
-        <v>89.057637246358766</v>
+        <v>94.68442673969875</v>
       </c>
       <c r="I247" s="11">
-        <v>96.663761981824976</v>
+        <v>98.991659404954561</v>
       </c>
       <c r="J247" s="11">
-        <v>99.57674592306735</v>
+        <v>99.962654052035347</v>
       </c>
       <c r="K247" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="15">
@@ -8093,7 +8081,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="15"/>
@@ -8106,7 +8094,7 @@
       <c r="J249" s="16"/>
       <c r="K249" s="17"/>
     </row>
-    <row r="250" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
         <v>56</v>
       </c>
@@ -8141,7 +8129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="15">
@@ -8172,7 +8160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
         <v>21</v>
       </c>
@@ -8207,7 +8195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="15">
@@ -8238,7 +8226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
         <v>21</v>
       </c>
@@ -8273,7 +8261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="15">
@@ -8304,7 +8292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="18"/>
       <c r="B256" s="18"/>
       <c r="C256" s="18"/>
@@ -8317,18 +8305,18 @@
       <c r="J256" s="18"/>
       <c r="K256" s="18"/>
     </row>
-    <row r="257" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B257" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C257" s="19" t="s">
-        <v>66</v>
+      <c r="C257" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="D257" s="13">
-        <v>3.1148378415419691E-4</v>
+        <v>3.1126369949357395E-4</v>
       </c>
       <c r="E257" s="11">
         <v>0</v>
@@ -8352,11 +8340,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
-      <c r="C258" s="19" t="s">
-        <v>68</v>
+      <c r="C258" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="D258" s="17">
         <v>3.0087313383438737E-4</v>
@@ -8383,7 +8371,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
         <v>21</v>
       </c>
@@ -8418,7 +8406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="15">
@@ -8449,18 +8437,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C261" s="19" t="s">
-        <v>66</v>
+      <c r="C261" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="D261" s="13">
-        <v>1.3918717473697102E-4</v>
+        <v>1.3910972557824435E-4</v>
       </c>
       <c r="E261" s="11">
         <v>0</v>
@@ -8484,10 +8472,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
-      <c r="C262" s="19" t="s">
+      <c r="C262" s="20" t="s">
         <v>64</v>
       </c>
       <c r="D262" s="17">
@@ -8515,7 +8503,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="15"/>
@@ -8528,7 +8516,7 @@
       <c r="J263" s="16"/>
       <c r="K263" s="17"/>
     </row>
-    <row r="264" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
         <v>57</v>
       </c>
@@ -8536,34 +8524,34 @@
         <v>20</v>
       </c>
       <c r="C264" s="9">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="D264" s="13">
-        <v>0.612065635862997</v>
+        <v>0.61225569690385995</v>
       </c>
       <c r="E264" s="11">
-        <v>22.493638676844785</v>
+        <v>27.24961870869344</v>
       </c>
       <c r="F264" s="11">
-        <v>61.475826972010182</v>
+        <v>70.157600406710728</v>
       </c>
       <c r="G264" s="11">
-        <v>87.226463104325703</v>
+        <v>91.204880528723947</v>
       </c>
       <c r="H264" s="11">
-        <v>96.895674300254456</v>
+        <v>98.169801728520582</v>
       </c>
       <c r="I264" s="11">
-        <v>98.829516539440192</v>
+        <v>99.288256227758012</v>
       </c>
       <c r="J264" s="11">
-        <v>99.13486005089058</v>
+        <v>99.389933909506865</v>
       </c>
       <c r="K264" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="15">
@@ -8594,7 +8582,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
         <v>21</v>
       </c>
@@ -8602,34 +8590,34 @@
         <v>22</v>
       </c>
       <c r="C266" s="9">
-        <v>2634</v>
+        <v>2639</v>
       </c>
       <c r="D266" s="13">
-        <v>0.66278657215541514</v>
+        <v>0.66375576604810027</v>
       </c>
       <c r="E266" s="11">
-        <v>28.739559605163251</v>
+        <v>34.672224327396741</v>
       </c>
       <c r="F266" s="11">
-        <v>69.476082004555806</v>
+        <v>76.582038651004169</v>
       </c>
       <c r="G266" s="11">
-        <v>90.584662110858005</v>
+        <v>92.345585449033734</v>
       </c>
       <c r="H266" s="11">
-        <v>97.00075930144267</v>
+        <v>97.612732095490713</v>
       </c>
       <c r="I266" s="11">
-        <v>98.709187547456338</v>
+        <v>98.976885183781732</v>
       </c>
       <c r="J266" s="11">
-        <v>99.354593773728169</v>
+        <v>99.355816597195911</v>
       </c>
       <c r="K266" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="15">
@@ -8660,7 +8648,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
         <v>21</v>
       </c>
@@ -8668,34 +8656,34 @@
         <v>23</v>
       </c>
       <c r="C268" s="9">
-        <v>4599</v>
+        <v>4606</v>
       </c>
       <c r="D268" s="13">
-        <v>0.64012181661532974</v>
+        <v>0.64073939601339347</v>
       </c>
       <c r="E268" s="11">
-        <v>26.070884974994563</v>
+        <v>31.502388189318282</v>
       </c>
       <c r="F268" s="11">
-        <v>66.057838660578383</v>
+        <v>73.838471558836304</v>
       </c>
       <c r="G268" s="11">
-        <v>89.149815177212432</v>
+        <v>91.858445505861923</v>
       </c>
       <c r="H268" s="11">
-        <v>96.955859969558603</v>
+        <v>97.85062961354754</v>
       </c>
       <c r="I268" s="11">
-        <v>98.760600130463132</v>
+        <v>99.109856708640905</v>
       </c>
       <c r="J268" s="11">
-        <v>99.260708849749946</v>
+        <v>99.370386452453317</v>
       </c>
       <c r="K268" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="15">
@@ -8726,7 +8714,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="15"/>
@@ -8739,7 +8727,7 @@
       <c r="J270" s="16"/>
       <c r="K270" s="17"/>
     </row>
-    <row r="271" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
         <v>58</v>
       </c>
@@ -8750,31 +8738,31 @@
         <v>1103</v>
       </c>
       <c r="D271" s="13">
-        <v>0.34356661392207921</v>
+        <v>0.34332386054141206</v>
       </c>
       <c r="E271" s="11">
-        <v>11.786038077969176</v>
+        <v>15.956482320942882</v>
       </c>
       <c r="F271" s="11">
-        <v>33.726201269265637</v>
+        <v>39.981867633726203</v>
       </c>
       <c r="G271" s="11">
-        <v>55.6663644605621</v>
+        <v>64.097914777878515</v>
       </c>
       <c r="H271" s="11">
-        <v>76.155938349954667</v>
+        <v>84.768812330009069</v>
       </c>
       <c r="I271" s="11">
-        <v>90.843155031731641</v>
+        <v>96.192203082502274</v>
       </c>
       <c r="J271" s="11">
-        <v>98.186763372620121</v>
+        <v>99.728014505893015</v>
       </c>
       <c r="K271" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="15">
@@ -8805,7 +8793,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
         <v>21</v>
       </c>
@@ -8816,31 +8804,31 @@
         <v>372</v>
       </c>
       <c r="D273" s="13">
-        <v>9.3605392878441315E-2</v>
+        <v>9.3564662739633681E-2</v>
       </c>
       <c r="E273" s="11">
-        <v>9.1397849462365599</v>
+        <v>14.516129032258066</v>
       </c>
       <c r="F273" s="11">
-        <v>30.107526881720432</v>
+        <v>40.053763440860216</v>
       </c>
       <c r="G273" s="11">
-        <v>54.838709677419352</v>
+        <v>70.430107526881727</v>
       </c>
       <c r="H273" s="11">
-        <v>81.451612903225808</v>
+        <v>91.397849462365585</v>
       </c>
       <c r="I273" s="11">
-        <v>94.354838709677423</v>
+        <v>98.924731182795696</v>
       </c>
       <c r="J273" s="11">
-        <v>99.193548387096769</v>
+        <v>99.731182795698928</v>
       </c>
       <c r="K273" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="15">
@@ -8871,7 +8859,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
         <v>21</v>
       </c>
@@ -8882,31 +8870,31 @@
         <v>1475</v>
       </c>
       <c r="D275" s="13">
-        <v>0.20530108273703229</v>
+        <v>0.20518684522791039</v>
       </c>
       <c r="E275" s="11">
-        <v>11.118644067796609</v>
+        <v>15.593220338983052</v>
       </c>
       <c r="F275" s="11">
-        <v>32.813559322033896</v>
+        <v>40</v>
       </c>
       <c r="G275" s="11">
-        <v>55.457627118644069</v>
+        <v>65.694915254237287</v>
       </c>
       <c r="H275" s="11">
-        <v>77.491525423728817</v>
+        <v>86.440677966101703</v>
       </c>
       <c r="I275" s="11">
-        <v>91.728813559322035</v>
+        <v>96.881355932203391</v>
       </c>
       <c r="J275" s="11">
-        <v>98.440677966101703</v>
+        <v>99.728813559322035</v>
       </c>
       <c r="K275" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="15">
@@ -8937,7 +8925,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="15"/>
@@ -8950,7 +8938,7 @@
       <c r="J277" s="16"/>
       <c r="K277" s="17"/>
     </row>
-    <row r="278" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
         <v>59</v>
       </c>
@@ -8961,31 +8949,31 @@
         <v>2825</v>
       </c>
       <c r="D278" s="13">
-        <v>0.87994169023560598</v>
+        <v>0.87931995106934646</v>
       </c>
       <c r="E278" s="11">
-        <v>4.2123893805309729</v>
+        <v>8</v>
       </c>
       <c r="F278" s="11">
-        <v>17.20353982300885</v>
+        <v>25.946902654867255</v>
       </c>
       <c r="G278" s="11">
-        <v>38.548672566371685</v>
+        <v>51.044247787610622</v>
       </c>
       <c r="H278" s="11">
-        <v>64.56637168141593</v>
+        <v>75.929203539823007</v>
       </c>
       <c r="I278" s="11">
-        <v>85.628318584070797</v>
+        <v>92.672566371681427</v>
       </c>
       <c r="J278" s="11">
-        <v>96.460176991150433</v>
+        <v>99.504424778761063</v>
       </c>
       <c r="K278" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="15">
@@ -9016,7 +9004,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
         <v>21</v>
       </c>
@@ -9027,31 +9015,31 @@
         <v>2567</v>
       </c>
       <c r="D280" s="13">
-        <v>0.6459275363412873</v>
+        <v>0.64564647648559059</v>
       </c>
       <c r="E280" s="11">
-        <v>4.2072458122321779</v>
+        <v>9.3494351382937282</v>
       </c>
       <c r="F280" s="11">
-        <v>18.737826256330347</v>
+        <v>29.411764705882355</v>
       </c>
       <c r="G280" s="11">
-        <v>44.331904947409427</v>
+        <v>57.576938059992209</v>
       </c>
       <c r="H280" s="11">
-        <v>69.887027658745609</v>
+        <v>80.872613946240747</v>
       </c>
       <c r="I280" s="11">
-        <v>87.650954421503698</v>
+        <v>94.195559018309311</v>
       </c>
       <c r="J280" s="11">
-        <v>96.649785742111419</v>
+        <v>99.376704324113746</v>
       </c>
       <c r="K280" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="15">
@@ -9082,7 +9070,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
         <v>21</v>
       </c>
@@ -9093,31 +9081,31 @@
         <v>5392</v>
       </c>
       <c r="D282" s="13">
-        <v>0.75049724618174773</v>
+        <v>0.75007964031789354</v>
       </c>
       <c r="E282" s="11">
-        <v>4.2099406528189913</v>
+        <v>8.6424332344213646</v>
       </c>
       <c r="F282" s="11">
-        <v>17.933976261127597</v>
+        <v>27.596439169139465</v>
       </c>
       <c r="G282" s="11">
-        <v>41.301928783382792</v>
+        <v>54.154302670623146</v>
       </c>
       <c r="H282" s="11">
-        <v>67.099406528189903</v>
+        <v>78.282640949554889</v>
       </c>
       <c r="I282" s="11">
-        <v>86.59124629080118</v>
+        <v>93.397626112759653</v>
       </c>
       <c r="J282" s="11">
-        <v>96.55044510385757</v>
+        <v>99.443620178041542</v>
       </c>
       <c r="K282" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="15">
@@ -9148,7 +9136,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="15"/>
@@ -9161,7 +9149,7 @@
       <c r="J284" s="16"/>
       <c r="K284" s="17"/>
     </row>
-    <row r="285" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="8" t="s">
         <v>60</v>
       </c>
@@ -9169,34 +9157,34 @@
         <v>20</v>
       </c>
       <c r="C285" s="10">
-        <v>321044</v>
+        <v>321271</v>
       </c>
       <c r="D285" s="14">
         <v>100</v>
       </c>
       <c r="E285" s="12">
-        <v>9.2115099487920649</v>
+        <v>14.157206844066225</v>
       </c>
       <c r="F285" s="12">
-        <v>27.146123272822415</v>
+        <v>36.37832235091247</v>
       </c>
       <c r="G285" s="12">
-        <v>51.002977784976508</v>
+        <v>62.220057210267967</v>
       </c>
       <c r="H285" s="12">
-        <v>75.042050310860816</v>
+        <v>85.097005331947173</v>
       </c>
       <c r="I285" s="12">
-        <v>90.731488518707721</v>
+        <v>95.962287290169357</v>
       </c>
       <c r="J285" s="12">
-        <v>97.782858424390426</v>
+        <v>99.650139601769226</v>
       </c>
       <c r="K285" s="14">
         <v>100</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="15">
@@ -9227,7 +9215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
         <v>21</v>
       </c>
@@ -9235,34 +9223,34 @@
         <v>22</v>
       </c>
       <c r="C287" s="9">
-        <v>397413</v>
+        <v>397586</v>
       </c>
       <c r="D287" s="13">
         <v>100</v>
       </c>
       <c r="E287" s="11">
-        <v>8.6897006388819698</v>
+        <v>14.33073599170997</v>
       </c>
       <c r="F287" s="11">
-        <v>28.040099342497605</v>
+        <v>39.508433395542099</v>
       </c>
       <c r="G287" s="11">
-        <v>56.017795089742918</v>
+        <v>68.03660088634912</v>
       </c>
       <c r="H287" s="11">
-        <v>80.43647288840576</v>
+        <v>89.42140819847782</v>
       </c>
       <c r="I287" s="11">
-        <v>93.628794226660929</v>
+        <v>97.516009115009084</v>
       </c>
       <c r="J287" s="11">
-        <v>98.603719556229919</v>
+        <v>99.79501290286882</v>
       </c>
       <c r="K287" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="15">
@@ -9293,7 +9281,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
         <v>21</v>
       </c>
@@ -9301,34 +9289,34 @@
         <v>23</v>
       </c>
       <c r="C289" s="9">
-        <v>718457</v>
+        <v>718857</v>
       </c>
       <c r="D289" s="13">
         <v>100</v>
       </c>
       <c r="E289" s="11">
-        <v>8.9228722108630016</v>
+        <v>14.253182482746915</v>
       </c>
       <c r="F289" s="11">
-        <v>27.640624282316129</v>
+        <v>38.109526651336772</v>
       </c>
       <c r="G289" s="11">
-        <v>53.776913580075082</v>
+        <v>65.43707580228056</v>
       </c>
       <c r="H289" s="11">
-        <v>78.025963975575436</v>
+        <v>87.488749500943868</v>
       </c>
       <c r="I289" s="11">
-        <v>92.334127164186583</v>
+        <v>96.821620989988276</v>
       </c>
       <c r="J289" s="11">
-        <v>98.236916057606777</v>
+        <v>99.730266242103781</v>
       </c>
       <c r="K289" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="15">
@@ -9359,7 +9347,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="18"/>
       <c r="B291" s="18"/>
       <c r="C291" s="18"/>
@@ -9372,24 +9360,24 @@
       <c r="J291" s="18"/>
       <c r="K291" s="18"/>
     </row>
-    <row r="292" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A298" s="20" t="s">
-        <v>69</v>
+    <row r="298" spans="1:11" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="21" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -9410,10 +9398,19 @@
     <brk id="207" max="16383" man="1"/>
     <brk id="256" max="16383" man="1"/>
   </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010090D0A8DD6E31254CB6B82BDDBE6EF879" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61df0b1d8400fc727567e63bfe041aeb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9b5ce7ee-8aee-4f1d-80d8-e6e7f973b835" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d048d99c9241f1c9d2995dcd3d31fee4" ns2:_="">
     <xsd:import namespace="9b5ce7ee-8aee-4f1d-80d8-e6e7f973b835"/>
@@ -9597,12 +9594,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9613,7 +9604,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{657B3675-E527-4103-84A2-1537CF491909}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8CC3134-7BC2-4A9E-9261-9DC73E5BE4B1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EABD803-90CC-4938-B330-86FD192C0125}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -9630,17 +9630,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A98889C-5777-4938-9844-2A2244A4A41D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF8500FC-491F-433A-BE26-506EDA4A7DBF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA226543-CC2F-4C4A-8464-6DC7810A4AB3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
